--- a/Wine Institute Records box list WORKING.xlsx
+++ b/Wine Institute Records box list WORKING.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18180" windowHeight="8685" firstSheet="6" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18180" windowHeight="8685" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="1. Reference" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'4. California Wine Industry'!$A$1:$F$602</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'X. Publicity Materials'!$A$1:$F$258</definedName>
+    <definedName name="D_242_Wine_Institute_list" localSheetId="9">'Y. Mixed Publications'!$A$8:$G$346</definedName>
     <definedName name="Wine_Institute_Public_Relations_Files" localSheetId="8">'X. Publicity Materials'!$A$217:$F$258</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -39,7 +40,20 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Wine-Institute-Public-Relations-Files" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="1" name="D-242-Wine-Institute-list" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\ecphillips\Desktop\D-242-Wine-Institute-list.csv" tab="0" comma="1">
+      <textFields count="7">
+        <textField type="text"/>
+        <textField type="text"/>
+        <textField type="text"/>
+        <textField type="text"/>
+        <textField type="text"/>
+        <textField type="text"/>
+        <textField type="text"/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="Wine-Institute-Public-Relations-Files" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\Users\ecphillips\Desktop\Wine-Institute-Public-Relations-Files.csv" tab="0" comma="1">
       <textFields count="6">
         <textField type="text"/>
@@ -55,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5821" uniqueCount="3525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7134" uniqueCount="4091">
   <si>
     <t>box</t>
   </si>
@@ -10630,6 +10644,1704 @@
   </si>
   <si>
     <t>1990-11/1991-03</t>
+  </si>
+  <si>
+    <t>INDEX: Robert Lawrence Balzer's Private Guide to Food and Wine</t>
+  </si>
+  <si>
+    <t>1970-[1983]</t>
+  </si>
+  <si>
+    <t>18 Pages of Index</t>
+  </si>
+  <si>
+    <t>Robert Lawrence Balzer's Private Guide to Food and Wine</t>
+  </si>
+  <si>
+    <t>June 1, 1970</t>
+  </si>
+  <si>
+    <t>1970-06-01</t>
+  </si>
+  <si>
+    <t>2 copies</t>
+  </si>
+  <si>
+    <t>July 1, 1970</t>
+  </si>
+  <si>
+    <t>1970-07-01</t>
+  </si>
+  <si>
+    <t>August 1, 1970</t>
+  </si>
+  <si>
+    <t>1970-08-01</t>
+  </si>
+  <si>
+    <t>September 1, 1970</t>
+  </si>
+  <si>
+    <t>1970-09-01</t>
+  </si>
+  <si>
+    <t>October 1, 1970</t>
+  </si>
+  <si>
+    <t>1970-10-01</t>
+  </si>
+  <si>
+    <t>November 1, 1970</t>
+  </si>
+  <si>
+    <t>1970-11-01</t>
+  </si>
+  <si>
+    <t>December 1, 1970</t>
+  </si>
+  <si>
+    <t>1970-12-01</t>
+  </si>
+  <si>
+    <t>January 1, 1971</t>
+  </si>
+  <si>
+    <t>1971-01-01</t>
+  </si>
+  <si>
+    <t>February 1, 1971</t>
+  </si>
+  <si>
+    <t>1971-02-01</t>
+  </si>
+  <si>
+    <t>March 1, 1971</t>
+  </si>
+  <si>
+    <t>1971-03-01</t>
+  </si>
+  <si>
+    <t>April 1, 1971</t>
+  </si>
+  <si>
+    <t>1971-04-01</t>
+  </si>
+  <si>
+    <t>May 1, 1971</t>
+  </si>
+  <si>
+    <t>1971-05-01</t>
+  </si>
+  <si>
+    <t>June 1, 1971</t>
+  </si>
+  <si>
+    <t>1971-06-01</t>
+  </si>
+  <si>
+    <t>July 1, 1971</t>
+  </si>
+  <si>
+    <t>1971-07-01</t>
+  </si>
+  <si>
+    <t>August 1, 1971</t>
+  </si>
+  <si>
+    <t>1971-08-01</t>
+  </si>
+  <si>
+    <t>September 1, 1971</t>
+  </si>
+  <si>
+    <t>1971-09-01</t>
+  </si>
+  <si>
+    <t>October 1, 1971</t>
+  </si>
+  <si>
+    <t>1971-10-01</t>
+  </si>
+  <si>
+    <t>November 1, 1971</t>
+  </si>
+  <si>
+    <t>1971-11-01</t>
+  </si>
+  <si>
+    <t>December 1, 1971</t>
+  </si>
+  <si>
+    <t>1971-12-01</t>
+  </si>
+  <si>
+    <t>January 1, 1972</t>
+  </si>
+  <si>
+    <t>1972-01-01</t>
+  </si>
+  <si>
+    <t>February 1, 1972</t>
+  </si>
+  <si>
+    <t>1972-02-01</t>
+  </si>
+  <si>
+    <t>March 1, 1972</t>
+  </si>
+  <si>
+    <t>1972-03-01</t>
+  </si>
+  <si>
+    <t>April 1, 1972</t>
+  </si>
+  <si>
+    <t>1972-04-01</t>
+  </si>
+  <si>
+    <t>May 1, 1972</t>
+  </si>
+  <si>
+    <t>1972-05-01</t>
+  </si>
+  <si>
+    <t>June 1, 1972</t>
+  </si>
+  <si>
+    <t>1972-06-01</t>
+  </si>
+  <si>
+    <t>July-August 1972</t>
+  </si>
+  <si>
+    <t>1972-07/1972-08</t>
+  </si>
+  <si>
+    <t>September 1, 1972</t>
+  </si>
+  <si>
+    <t>1972-09-01</t>
+  </si>
+  <si>
+    <t>October 1, 1972</t>
+  </si>
+  <si>
+    <t>1972-10-01</t>
+  </si>
+  <si>
+    <t>November 1, 1972</t>
+  </si>
+  <si>
+    <t>1972-11-01</t>
+  </si>
+  <si>
+    <t>December 1, 1972</t>
+  </si>
+  <si>
+    <t>1972-12-01</t>
+  </si>
+  <si>
+    <t>January 1, 1973</t>
+  </si>
+  <si>
+    <t>1973-01-01</t>
+  </si>
+  <si>
+    <t>February 1, 1973</t>
+  </si>
+  <si>
+    <t>1973-02-01</t>
+  </si>
+  <si>
+    <t>March 1, 1973</t>
+  </si>
+  <si>
+    <t>1973-03-01</t>
+  </si>
+  <si>
+    <t>April 1, 1973</t>
+  </si>
+  <si>
+    <t>1973-04-01</t>
+  </si>
+  <si>
+    <t>May 1, 1973</t>
+  </si>
+  <si>
+    <t>1973-05-01</t>
+  </si>
+  <si>
+    <t>June 1, 1973</t>
+  </si>
+  <si>
+    <t>1973-06-01</t>
+  </si>
+  <si>
+    <t>July-August 1973</t>
+  </si>
+  <si>
+    <t>1973-07/1973-08</t>
+  </si>
+  <si>
+    <t>September 1, 1973</t>
+  </si>
+  <si>
+    <t>1973-09-01</t>
+  </si>
+  <si>
+    <t>October 1, 1973</t>
+  </si>
+  <si>
+    <t>1973-10-01</t>
+  </si>
+  <si>
+    <t>November 1, 1973</t>
+  </si>
+  <si>
+    <t>1973-11-01</t>
+  </si>
+  <si>
+    <t>December 1, 1973</t>
+  </si>
+  <si>
+    <t>1973-12-01</t>
+  </si>
+  <si>
+    <t>January 1, 1974</t>
+  </si>
+  <si>
+    <t>1974-01-01</t>
+  </si>
+  <si>
+    <t>February 1, 1974</t>
+  </si>
+  <si>
+    <t>1974-02-01</t>
+  </si>
+  <si>
+    <t>March 1, 1974</t>
+  </si>
+  <si>
+    <t>1974-03-01</t>
+  </si>
+  <si>
+    <t>April 1, 1974</t>
+  </si>
+  <si>
+    <t>1974-04-01</t>
+  </si>
+  <si>
+    <t>May 1, 1974</t>
+  </si>
+  <si>
+    <t>1974-05-01</t>
+  </si>
+  <si>
+    <t>June 1, 1974</t>
+  </si>
+  <si>
+    <t>1974-06-01</t>
+  </si>
+  <si>
+    <t>July-August 1974</t>
+  </si>
+  <si>
+    <t>1974-07/1974-08</t>
+  </si>
+  <si>
+    <t>September 1, 1974</t>
+  </si>
+  <si>
+    <t>1974-09-01</t>
+  </si>
+  <si>
+    <t>October 1, 1974</t>
+  </si>
+  <si>
+    <t>1974-10-01</t>
+  </si>
+  <si>
+    <t>November 1, 1974</t>
+  </si>
+  <si>
+    <t>1974-11-01</t>
+  </si>
+  <si>
+    <t>December 1, 1974</t>
+  </si>
+  <si>
+    <t>1974-12-01</t>
+  </si>
+  <si>
+    <t>January 1, 1975</t>
+  </si>
+  <si>
+    <t>1975-01-01</t>
+  </si>
+  <si>
+    <t>February 1, 1975</t>
+  </si>
+  <si>
+    <t>1975-02-01</t>
+  </si>
+  <si>
+    <t>March 1, 1975</t>
+  </si>
+  <si>
+    <t>1975-03-01</t>
+  </si>
+  <si>
+    <t>April 1, 1975</t>
+  </si>
+  <si>
+    <t>1975-04-01</t>
+  </si>
+  <si>
+    <t>May 1, 1975</t>
+  </si>
+  <si>
+    <t>1975-05-01</t>
+  </si>
+  <si>
+    <t>June 1, 1975</t>
+  </si>
+  <si>
+    <t>1975-06-01</t>
+  </si>
+  <si>
+    <t>July-August 1975</t>
+  </si>
+  <si>
+    <t>1975-07/1975-08</t>
+  </si>
+  <si>
+    <t>Volume 6, Numbers 2-3</t>
+  </si>
+  <si>
+    <t>1976.0</t>
+  </si>
+  <si>
+    <t>1976</t>
+  </si>
+  <si>
+    <t>Volume 6, Number 4</t>
+  </si>
+  <si>
+    <t>Volume 6, Number 5</t>
+  </si>
+  <si>
+    <t>Volume 6, Number 6</t>
+  </si>
+  <si>
+    <t>Volume 6, Number 7</t>
+  </si>
+  <si>
+    <t>Volume 6, Number 8</t>
+  </si>
+  <si>
+    <t>Volume 6, Number 9</t>
+  </si>
+  <si>
+    <t>1977.0</t>
+  </si>
+  <si>
+    <t>1977</t>
+  </si>
+  <si>
+    <t>Volume 6, Number 10</t>
+  </si>
+  <si>
+    <t>Volume 6, Number 11</t>
+  </si>
+  <si>
+    <t>Volume 6, Number 12</t>
+  </si>
+  <si>
+    <t>Volume 7, Number 1</t>
+  </si>
+  <si>
+    <t>Volume 7, Number 2</t>
+  </si>
+  <si>
+    <t>Volume 7, Number 3</t>
+  </si>
+  <si>
+    <t>Volume 7, Number 4-5</t>
+  </si>
+  <si>
+    <t>Volume 7, Number 6</t>
+  </si>
+  <si>
+    <t>Volume 7, Number 7</t>
+  </si>
+  <si>
+    <t>1978.0</t>
+  </si>
+  <si>
+    <t>1978</t>
+  </si>
+  <si>
+    <t>Volume 7, Number 8</t>
+  </si>
+  <si>
+    <t>Volume 7, Number 9</t>
+  </si>
+  <si>
+    <t>Volume 7, Number 10</t>
+  </si>
+  <si>
+    <t>Volume 7, Number 11</t>
+  </si>
+  <si>
+    <t>Volume 7, Number 12</t>
+  </si>
+  <si>
+    <t>Volume 8, Number 1</t>
+  </si>
+  <si>
+    <t>Volume 8, Number 2</t>
+  </si>
+  <si>
+    <t>Volume 8, Number 3-4</t>
+  </si>
+  <si>
+    <t>1979.0</t>
+  </si>
+  <si>
+    <t>1979</t>
+  </si>
+  <si>
+    <t>Volume 8, Number 5</t>
+  </si>
+  <si>
+    <t>1980.0</t>
+  </si>
+  <si>
+    <t>1980</t>
+  </si>
+  <si>
+    <t>Volume 8, Number 6</t>
+  </si>
+  <si>
+    <t>Volume 8, Number 7</t>
+  </si>
+  <si>
+    <t>Volume 8, Number 8</t>
+  </si>
+  <si>
+    <t>Volume 8, Number 9</t>
+  </si>
+  <si>
+    <t>Volume 8, Number 10</t>
+  </si>
+  <si>
+    <t>Volume 8, Number 11</t>
+  </si>
+  <si>
+    <t>Volume 8, Number 12</t>
+  </si>
+  <si>
+    <t>Volume 9, Number 1</t>
+  </si>
+  <si>
+    <t>Volume 9, Number 2</t>
+  </si>
+  <si>
+    <t>Volume 9, Number 3-4</t>
+  </si>
+  <si>
+    <t>Volume 9, Number 5</t>
+  </si>
+  <si>
+    <t>Volume 9, Number 6</t>
+  </si>
+  <si>
+    <t>1981.0</t>
+  </si>
+  <si>
+    <t>1981</t>
+  </si>
+  <si>
+    <t>Volume 9, Number 7</t>
+  </si>
+  <si>
+    <t>Volume 9, Number 8</t>
+  </si>
+  <si>
+    <t>Volume 9, Number 9-10</t>
+  </si>
+  <si>
+    <t>Volume 9, Number 11-12</t>
+  </si>
+  <si>
+    <t>Volume 10, Number 1</t>
+  </si>
+  <si>
+    <t>1982.0</t>
+  </si>
+  <si>
+    <t>1982</t>
+  </si>
+  <si>
+    <t>Volume 10, Number 2-3</t>
+  </si>
+  <si>
+    <t>Volume 10, Number 4</t>
+  </si>
+  <si>
+    <t>Volume 10, Number 5</t>
+  </si>
+  <si>
+    <t>Volume 10, Number 6-7</t>
+  </si>
+  <si>
+    <t>1983.0</t>
+  </si>
+  <si>
+    <t>1983</t>
+  </si>
+  <si>
+    <t>Volume 10, Number 8-9</t>
+  </si>
+  <si>
+    <t>Volume 10, Number 10-11</t>
+  </si>
+  <si>
+    <t>Volume 10, Number 12</t>
+  </si>
+  <si>
+    <t>1984.0</t>
+  </si>
+  <si>
+    <t>1984</t>
+  </si>
+  <si>
+    <t>Volume 11, Number 1-2</t>
+  </si>
+  <si>
+    <t>Volume 11, Number 3-4</t>
+  </si>
+  <si>
+    <t>Volume 11, Number 5-6</t>
+  </si>
+  <si>
+    <t>Volume 11, Number 7-8</t>
+  </si>
+  <si>
+    <t>Tasters Guild</t>
+  </si>
+  <si>
+    <t>April-May 2000</t>
+  </si>
+  <si>
+    <t>2000-04/2000-05</t>
+  </si>
+  <si>
+    <t>3 pages</t>
+  </si>
+  <si>
+    <t>The Crush</t>
+  </si>
+  <si>
+    <t>July 1, 2000</t>
+  </si>
+  <si>
+    <t>2000-07-01</t>
+  </si>
+  <si>
+    <t>1 issue</t>
+  </si>
+  <si>
+    <t>The Wine Investor</t>
+  </si>
+  <si>
+    <t>May 1, 2000</t>
+  </si>
+  <si>
+    <t>2000-05-01</t>
+  </si>
+  <si>
+    <t>January 1, 2001</t>
+  </si>
+  <si>
+    <t>2001-01-01</t>
+  </si>
+  <si>
+    <t>Wine Business Insider</t>
+  </si>
+  <si>
+    <t>February 1, 2000</t>
+  </si>
+  <si>
+    <t>2000-02-01</t>
+  </si>
+  <si>
+    <t>March 1, 2000</t>
+  </si>
+  <si>
+    <t>2000-03-01</t>
+  </si>
+  <si>
+    <t>April 1, 2000</t>
+  </si>
+  <si>
+    <t>2000-04-01</t>
+  </si>
+  <si>
+    <t>2 issues</t>
+  </si>
+  <si>
+    <t>June 1, 2000</t>
+  </si>
+  <si>
+    <t>2000-06-01</t>
+  </si>
+  <si>
+    <t>1 issue (2 copies)</t>
+  </si>
+  <si>
+    <t>Dan Berger's Vintage Experiences</t>
+  </si>
+  <si>
+    <t>6 issues</t>
+  </si>
+  <si>
+    <t>August 1, 2000</t>
+  </si>
+  <si>
+    <t>2000-08-01</t>
+  </si>
+  <si>
+    <t>3 issues</t>
+  </si>
+  <si>
+    <t>September 1, 2000</t>
+  </si>
+  <si>
+    <t>2000-09-01</t>
+  </si>
+  <si>
+    <t>5 issues</t>
+  </si>
+  <si>
+    <t>October 1, 2000</t>
+  </si>
+  <si>
+    <t>2000-10-01</t>
+  </si>
+  <si>
+    <t>4 issue</t>
+  </si>
+  <si>
+    <t>November 1, 2000</t>
+  </si>
+  <si>
+    <t>2000-11-01</t>
+  </si>
+  <si>
+    <t>February 1, 2001</t>
+  </si>
+  <si>
+    <t>2001-02-01</t>
+  </si>
+  <si>
+    <t>March 1, 2001</t>
+  </si>
+  <si>
+    <t>2001-03-01</t>
+  </si>
+  <si>
+    <t>May 1, 2001</t>
+  </si>
+  <si>
+    <t>2001-05-01</t>
+  </si>
+  <si>
+    <t>Wine Market Report</t>
+  </si>
+  <si>
+    <t>January 1, 1999</t>
+  </si>
+  <si>
+    <t>1999-01-01</t>
+  </si>
+  <si>
+    <t>Volume 3, issue 5</t>
+  </si>
+  <si>
+    <t>January 1, 2000</t>
+  </si>
+  <si>
+    <t>2000-01-01</t>
+  </si>
+  <si>
+    <t>Volume 3, issue 55 -11</t>
+  </si>
+  <si>
+    <t>Volume 3, issues 14, 17 (2 copies), 18, 20,21, 22 (2 copies), 23</t>
+  </si>
+  <si>
+    <t>Volume 3, Numbers 24 (2 copies), 25, 27, 29, 30</t>
+  </si>
+  <si>
+    <t>Volume 3, issues 33, 37, 39, 40 (2 copies), 41 (2 copies), 42 (2 copies)</t>
+  </si>
+  <si>
+    <t>Volume 3, issues 43, 44 (2 copies), 47 (2 copies), 48 (3 copies), 50</t>
+  </si>
+  <si>
+    <t>Volume 3, issue 51 (4 copies), 52 (4 copies),53 (4 copies), 54 (4 copies), 56 (5 copies), 58 (3 copies), 59 (4 copies), 60 (3 copies)</t>
+  </si>
+  <si>
+    <t>Volume 3, issue 61 (2 copies), 62 (4 copies), 65 (4 copies)</t>
+  </si>
+  <si>
+    <t>Volume 3, issue 66 (2 copies), 67, 69 (3 copies), 70 (2 copies), 74 (5 copies),75 (2 copies), 76 (2 copies)</t>
+  </si>
+  <si>
+    <t>Volume 3, issue 77 (2 copies), 78 (3 copies), 80,81, 82, 83</t>
+  </si>
+  <si>
+    <t>Volume 3, issue 86 (2 copies), 91</t>
+  </si>
+  <si>
+    <t>Volume 3, issue 98</t>
+  </si>
+  <si>
+    <t>December 1, 2000</t>
+  </si>
+  <si>
+    <t>2000-12-01</t>
+  </si>
+  <si>
+    <t>Volume 3, issue 99, 101, 102, 105, 106</t>
+  </si>
+  <si>
+    <t>Volume 4, Issue 2, 3, 4 (2 copies)</t>
+  </si>
+  <si>
+    <t>Volume 4, Issue 6,9, 10 (2 copies), 11(2 copies),</t>
+  </si>
+  <si>
+    <t>Volume 4, Issue 15 (2 copies) ,16, 17 (2 copies),18, 35, 36</t>
+  </si>
+  <si>
+    <t>April 1, 2001</t>
+  </si>
+  <si>
+    <t>2001-04-01</t>
+  </si>
+  <si>
+    <t>Volume 4, Issue 21, 27 (2 copies)</t>
+  </si>
+  <si>
+    <t>Volume 4, Issue 33</t>
+  </si>
+  <si>
+    <t>June 1, 2001</t>
+  </si>
+  <si>
+    <t>2001-06-01</t>
+  </si>
+  <si>
+    <t>Volume 4, Issue 40, 41, 42, 43 (2 copies), 44 (2 copies),</t>
+  </si>
+  <si>
+    <t>July 1, 2001</t>
+  </si>
+  <si>
+    <t>2001-07-01</t>
+  </si>
+  <si>
+    <t>Volume 4, Issue 48,50, 51, 52 (2 copies), 64,</t>
+  </si>
+  <si>
+    <t>August 1, 2001</t>
+  </si>
+  <si>
+    <t>2001-08-01</t>
+  </si>
+  <si>
+    <t>Volume 4, Issue 55, 56 (3 copies), 58 (2 copies)</t>
+  </si>
+  <si>
+    <t>September 1, 2001</t>
+  </si>
+  <si>
+    <t>2001-09-01</t>
+  </si>
+  <si>
+    <t>Volume 4, Issue 59 (3 copies),60 (3 copies), 62, 64</t>
+  </si>
+  <si>
+    <t>October 1, 2001</t>
+  </si>
+  <si>
+    <t>2001-10-01</t>
+  </si>
+  <si>
+    <t>Volume 4, Issue 66, 70, 71, 72, 73 (2 copies), 74</t>
+  </si>
+  <si>
+    <t>Kane's Beverage Week</t>
+  </si>
+  <si>
+    <t>March 1, 1987</t>
+  </si>
+  <si>
+    <t>1987-03-01</t>
+  </si>
+  <si>
+    <t>Volume 48, Number 12</t>
+  </si>
+  <si>
+    <t>June 1, 1987</t>
+  </si>
+  <si>
+    <t>1987-06-01</t>
+  </si>
+  <si>
+    <t>Volume 48, Number 23</t>
+  </si>
+  <si>
+    <t>September 1, 1987</t>
+  </si>
+  <si>
+    <t>1987-09-01</t>
+  </si>
+  <si>
+    <t>Volume 48, Number 31, 32, 33, 35</t>
+  </si>
+  <si>
+    <t>October 1, 1987</t>
+  </si>
+  <si>
+    <t>1987-10-01</t>
+  </si>
+  <si>
+    <t>Volume 48, Number 38, 39</t>
+  </si>
+  <si>
+    <t>November 1, 1987</t>
+  </si>
+  <si>
+    <t>1987-11-01</t>
+  </si>
+  <si>
+    <t>Volume 48, Number 40, 41, 42, 43, 44</t>
+  </si>
+  <si>
+    <t>December 1, 1987</t>
+  </si>
+  <si>
+    <t>1987-12-01</t>
+  </si>
+  <si>
+    <t>Volume 48, Number 45, 46, 48</t>
+  </si>
+  <si>
+    <t>January 1, 1988</t>
+  </si>
+  <si>
+    <t>1988-01-01</t>
+  </si>
+  <si>
+    <t>Volume 49, Number 1, 2, 3</t>
+  </si>
+  <si>
+    <t>February 1, 1988</t>
+  </si>
+  <si>
+    <t>1988-02-01</t>
+  </si>
+  <si>
+    <t>Volume 49, Number 4,5,7,8</t>
+  </si>
+  <si>
+    <t>March 1, 1988</t>
+  </si>
+  <si>
+    <t>1988-03-01</t>
+  </si>
+  <si>
+    <t>Volume 49, Number 9, 10, 12</t>
+  </si>
+  <si>
+    <t>April 1, 1988</t>
+  </si>
+  <si>
+    <t>1988-04-01</t>
+  </si>
+  <si>
+    <t>Volume 49, Number 13, 14, 15, 16</t>
+  </si>
+  <si>
+    <t>May 1, 1988</t>
+  </si>
+  <si>
+    <t>1988-05-01</t>
+  </si>
+  <si>
+    <t>Volume 49, Number 17, 18, 19, 20 (2 copies)</t>
+  </si>
+  <si>
+    <t>June 1, 1988</t>
+  </si>
+  <si>
+    <t>1988-06-01</t>
+  </si>
+  <si>
+    <t>Volume 49, Number 22, 23, 24, 25</t>
+  </si>
+  <si>
+    <t>July 1, 1988</t>
+  </si>
+  <si>
+    <t>1988-07-01</t>
+  </si>
+  <si>
+    <t>Volume 49, Number 28 (2 copies)</t>
+  </si>
+  <si>
+    <t>August 1, 1988</t>
+  </si>
+  <si>
+    <t>1988-08-01</t>
+  </si>
+  <si>
+    <t>Volume 49, Number 29, 30</t>
+  </si>
+  <si>
+    <t>September 1, 1988</t>
+  </si>
+  <si>
+    <t>1988-09-01</t>
+  </si>
+  <si>
+    <t>Volume 49, Number 31 (2 copies), 32</t>
+  </si>
+  <si>
+    <t>October 1, 1988</t>
+  </si>
+  <si>
+    <t>1988-10-01</t>
+  </si>
+  <si>
+    <t>Volume 49, Number 33, 34 , 35 (2 copies)</t>
+  </si>
+  <si>
+    <t>November 1, 1988</t>
+  </si>
+  <si>
+    <t>1988-11-01</t>
+  </si>
+  <si>
+    <t>Volume 49, Number 36, 37, 38</t>
+  </si>
+  <si>
+    <t>December 1, 1988</t>
+  </si>
+  <si>
+    <t>1988-12-01</t>
+  </si>
+  <si>
+    <t>Volume 49, Number 40, 41, 44, 47</t>
+  </si>
+  <si>
+    <t>January 1, 1989</t>
+  </si>
+  <si>
+    <t>1989-01-01</t>
+  </si>
+  <si>
+    <t>Volume 50, Number 1,2,3,4</t>
+  </si>
+  <si>
+    <t>February 1, 1989</t>
+  </si>
+  <si>
+    <t>1989-02-01</t>
+  </si>
+  <si>
+    <t>Volume 50, Number 5,6,7,8</t>
+  </si>
+  <si>
+    <t>March 1, 1989</t>
+  </si>
+  <si>
+    <t>1989-03-01</t>
+  </si>
+  <si>
+    <t>Volume 50, Number 9</t>
+  </si>
+  <si>
+    <t>April 1, 1989</t>
+  </si>
+  <si>
+    <t>1989-04-01</t>
+  </si>
+  <si>
+    <t>Volume 50, Number 13, 16, 17</t>
+  </si>
+  <si>
+    <t>May 1, 1989</t>
+  </si>
+  <si>
+    <t>1989-05-01</t>
+  </si>
+  <si>
+    <t>Volume 50, Number 16, 17, 19, 20</t>
+  </si>
+  <si>
+    <t>June 1, 1989</t>
+  </si>
+  <si>
+    <t>1989-06-01</t>
+  </si>
+  <si>
+    <t>Volume 50, Number 21, 22, 23</t>
+  </si>
+  <si>
+    <t>July 1, 1989</t>
+  </si>
+  <si>
+    <t>1989-07-01</t>
+  </si>
+  <si>
+    <t>Volume 50, Number 24, 27</t>
+  </si>
+  <si>
+    <t>August 1, 1989</t>
+  </si>
+  <si>
+    <t>1989-08-01</t>
+  </si>
+  <si>
+    <t>Volume 50, Number 28, 30</t>
+  </si>
+  <si>
+    <t>September 1, 1989</t>
+  </si>
+  <si>
+    <t>1989-09-01</t>
+  </si>
+  <si>
+    <t>Volume 50, Number 31, 32, 33</t>
+  </si>
+  <si>
+    <t>October 1, 1989</t>
+  </si>
+  <si>
+    <t>1989-10-01</t>
+  </si>
+  <si>
+    <t>Volume 50, Number33, 35, 37 (2 copies)</t>
+  </si>
+  <si>
+    <t>April 1, 1990</t>
+  </si>
+  <si>
+    <t>1990-04-01</t>
+  </si>
+  <si>
+    <t>Volume 51, Number 13, 14, 16, 17</t>
+  </si>
+  <si>
+    <t>May 1, 1990</t>
+  </si>
+  <si>
+    <t>1990-05-01</t>
+  </si>
+  <si>
+    <t>Volume 51, Number 18, 19, 20, 21</t>
+  </si>
+  <si>
+    <t>June 1, 1990</t>
+  </si>
+  <si>
+    <t>1990-06-01</t>
+  </si>
+  <si>
+    <t>Volume 51, Number 22, 23, 25</t>
+  </si>
+  <si>
+    <t>July 1, 1990</t>
+  </si>
+  <si>
+    <t>1990-07-01</t>
+  </si>
+  <si>
+    <t>Volume 51, Number 26, 27</t>
+  </si>
+  <si>
+    <t>August 1, 1990</t>
+  </si>
+  <si>
+    <t>1990-08-01</t>
+  </si>
+  <si>
+    <t>Volume 51, Number 28, 29</t>
+  </si>
+  <si>
+    <t>September 1, 1990</t>
+  </si>
+  <si>
+    <t>1990-09-01</t>
+  </si>
+  <si>
+    <t>Volume 51, Number 31, 33</t>
+  </si>
+  <si>
+    <t>October 1, 1990</t>
+  </si>
+  <si>
+    <t>1990-10-01</t>
+  </si>
+  <si>
+    <t>Volume 51, Number 35, 36 (2 copies), 37</t>
+  </si>
+  <si>
+    <t>November 1, 1990</t>
+  </si>
+  <si>
+    <t>1990-11-01</t>
+  </si>
+  <si>
+    <t>Volume 51, Number 38, 39</t>
+  </si>
+  <si>
+    <t>August 1, 1993</t>
+  </si>
+  <si>
+    <t>1993-08-01</t>
+  </si>
+  <si>
+    <t>Volume 54, Number 27, 28</t>
+  </si>
+  <si>
+    <t>September 1, 1993</t>
+  </si>
+  <si>
+    <t>1993-09-01</t>
+  </si>
+  <si>
+    <t>Volume 54, Number 31</t>
+  </si>
+  <si>
+    <t>August 1, 1999</t>
+  </si>
+  <si>
+    <t>1999-08-01</t>
+  </si>
+  <si>
+    <t>Volume 60, Number 30</t>
+  </si>
+  <si>
+    <t>Volume 61, Number 5,7 (2 copies), 8 (2 copies)</t>
+  </si>
+  <si>
+    <t>Volume 61, Number 9,10 (3 copies),11 (3 copies), 12 (3 copies)</t>
+  </si>
+  <si>
+    <t>Volume 61, Number 11, 13, 14, 15 (2 copies)</t>
+  </si>
+  <si>
+    <t>Volume 61, Number 17 (3 copies), 18, 19(3 copies), 20 (2 copies)</t>
+  </si>
+  <si>
+    <t>Volume 61, Number 22 (4 copies), 24 (4 copies)</t>
+  </si>
+  <si>
+    <t>Volume 61, Number 22 (3 copies), 27 (3 copies), 28 (3 copies), 30</t>
+  </si>
+  <si>
+    <t>Volume 61, Number 30 (4 copies)</t>
+  </si>
+  <si>
+    <t>Volume 61, Number 31 (7 copies), 34 (2 copies)</t>
+  </si>
+  <si>
+    <t>Volume 61, Number 35 (2 copies),36, 37(2 copies), 38, 39</t>
+  </si>
+  <si>
+    <t>Volume 61, Number 41, 42</t>
+  </si>
+  <si>
+    <t>Volume 61, Number 44, 45, 46, 47</t>
+  </si>
+  <si>
+    <t>Volume 62, Number 1 (2 copies), 3, 4</t>
+  </si>
+  <si>
+    <t>Volume 62, Number 5 (2 copies), 6 (2 copies)</t>
+  </si>
+  <si>
+    <t>Volume 62, Number 11</t>
+  </si>
+  <si>
+    <t>Volume 62, Number 15 (4 copies), 16 (2 copies)</t>
+  </si>
+  <si>
+    <t>Volume 62, Number 18 (2 copies), 19, 20 (2 copies), 21</t>
+  </si>
+  <si>
+    <t>Volume 62, Number 22 (2 copies),23 (2 copies),25</t>
+  </si>
+  <si>
+    <t>Volume 62, Number 27 (2 copies), 28 (2 copies)</t>
+  </si>
+  <si>
+    <t>Volume 62, Number 29 (2 copies), 30 (4 copies)</t>
+  </si>
+  <si>
+    <t>Volume 62, Number 31 (2 copies), 32 (2 copies)</t>
+  </si>
+  <si>
+    <t>Volume 62, Number 35,38</t>
+  </si>
+  <si>
+    <t>November 1, 2001</t>
+  </si>
+  <si>
+    <t>2001-11-01</t>
+  </si>
+  <si>
+    <t>Volume 62, Number 40</t>
+  </si>
+  <si>
+    <t>Impact Report Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1988 </t>
+  </si>
+  <si>
+    <t>1988</t>
+  </si>
+  <si>
+    <t>1 index</t>
+  </si>
+  <si>
+    <t>Impact Report</t>
+  </si>
+  <si>
+    <t>December 1987-Jan 1988</t>
+  </si>
+  <si>
+    <t>1987-12/1988-01</t>
+  </si>
+  <si>
+    <t>Aug-Sep 1988</t>
+  </si>
+  <si>
+    <t>1988-08/1988-09</t>
+  </si>
+  <si>
+    <t>December 1988-Jan 1989</t>
+  </si>
+  <si>
+    <t>1988-12/1989-01</t>
+  </si>
+  <si>
+    <t>"Wineries of the Napa Valley" brochure and map</t>
+  </si>
+  <si>
+    <t>1988.0</t>
+  </si>
+  <si>
+    <t>Napa Valley Vintner's Association; Napa Valley Grape Growers Association</t>
+  </si>
+  <si>
+    <t>Compass Maps Winery Guide to Northern and Central California</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>"Wine and Public Opinion", Howard Goldberg</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>Photocopy from The Journal of Gastronomy</t>
+  </si>
+  <si>
+    <t>Newsletter of the Americas (International Wine and Food Society)</t>
+  </si>
+  <si>
+    <t>Number 3/1991</t>
+  </si>
+  <si>
+    <t>June-July 1989</t>
+  </si>
+  <si>
+    <t>1989-06/1989-07</t>
+  </si>
+  <si>
+    <t>Aug-Sep 1989</t>
+  </si>
+  <si>
+    <t>1989-08/1989-09</t>
+  </si>
+  <si>
+    <t>November 1, 1989</t>
+  </si>
+  <si>
+    <t>1989-11-01</t>
+  </si>
+  <si>
+    <t>December 1, 1989</t>
+  </si>
+  <si>
+    <t>1989-12-01</t>
+  </si>
+  <si>
+    <t>December 1989-Jan 1990</t>
+  </si>
+  <si>
+    <t>1989-12/1990-01</t>
+  </si>
+  <si>
+    <t>January 1, 1990</t>
+  </si>
+  <si>
+    <t>1990-01-01</t>
+  </si>
+  <si>
+    <t>February 1, 1990</t>
+  </si>
+  <si>
+    <t>1990-02-01</t>
+  </si>
+  <si>
+    <t>March 1, 1990</t>
+  </si>
+  <si>
+    <t>1990-03-01</t>
+  </si>
+  <si>
+    <t>May-June 1990</t>
+  </si>
+  <si>
+    <t>1990-05/1990-06</t>
+  </si>
+  <si>
+    <t>2 issues (1 duplicate)</t>
+  </si>
+  <si>
+    <t>December 1, 1990</t>
+  </si>
+  <si>
+    <t>1990-12-01</t>
+  </si>
+  <si>
+    <t>December 1990-Jan 1991</t>
+  </si>
+  <si>
+    <t>1990-12/1991-01</t>
+  </si>
+  <si>
+    <t>January 1, 1991</t>
+  </si>
+  <si>
+    <t>1991-01-01</t>
+  </si>
+  <si>
+    <t>February 1, 1991</t>
+  </si>
+  <si>
+    <t>1991-02-01</t>
+  </si>
+  <si>
+    <t>March 1, 1991</t>
+  </si>
+  <si>
+    <t>1991-03-01</t>
+  </si>
+  <si>
+    <t>April 1, 1991</t>
+  </si>
+  <si>
+    <t>1991-04-01</t>
+  </si>
+  <si>
+    <t>May 1, 1991</t>
+  </si>
+  <si>
+    <t>1991-05-01</t>
+  </si>
+  <si>
+    <t>July 1, 1991</t>
+  </si>
+  <si>
+    <t>1991-07-01</t>
+  </si>
+  <si>
+    <t>September 1, 1991</t>
+  </si>
+  <si>
+    <t>1991-09-01</t>
+  </si>
+  <si>
+    <t>November 1, 1991</t>
+  </si>
+  <si>
+    <t>1991-11-01</t>
+  </si>
+  <si>
+    <t>December 1, 1991</t>
+  </si>
+  <si>
+    <t>1991-12-01</t>
+  </si>
+  <si>
+    <t>January 1, 1992</t>
+  </si>
+  <si>
+    <t>1992-01-01</t>
+  </si>
+  <si>
+    <t>February 1, 1992</t>
+  </si>
+  <si>
+    <t>1992-02-01</t>
+  </si>
+  <si>
+    <t>March 1, 1992</t>
+  </si>
+  <si>
+    <t>1992-03-01</t>
+  </si>
+  <si>
+    <t>June 1, 1992</t>
+  </si>
+  <si>
+    <t>1992-06-01</t>
+  </si>
+  <si>
+    <t>July 1, 1992</t>
+  </si>
+  <si>
+    <t>1992-07-01</t>
+  </si>
+  <si>
+    <t>August 1, 1992</t>
+  </si>
+  <si>
+    <t>1992-08-01</t>
+  </si>
+  <si>
+    <t>September 1, 1992</t>
+  </si>
+  <si>
+    <t>1992-09-01</t>
+  </si>
+  <si>
+    <t>September-October 1992</t>
+  </si>
+  <si>
+    <t>1992-09/1992-10</t>
+  </si>
+  <si>
+    <t>October 1, 1992</t>
+  </si>
+  <si>
+    <t>1992-10-01</t>
+  </si>
+  <si>
+    <t>November 1, 1993</t>
+  </si>
+  <si>
+    <t>1993-11-01</t>
+  </si>
+  <si>
+    <t>August 1, 1998</t>
+  </si>
+  <si>
+    <t>1998-08-01</t>
+  </si>
+  <si>
+    <t>December 1, 1999</t>
+  </si>
+  <si>
+    <t>1999-12-01</t>
+  </si>
+  <si>
+    <t>April-May 2001</t>
+  </si>
+  <si>
+    <t>2001-04/2001-05</t>
+  </si>
+  <si>
+    <t>December 1, 2001</t>
+  </si>
+  <si>
+    <t>2001-12-01</t>
+  </si>
+  <si>
+    <t>February 1, 2002</t>
+  </si>
+  <si>
+    <t>2002-02-01</t>
+  </si>
+  <si>
+    <t>March 1, 2002</t>
+  </si>
+  <si>
+    <t>2002-03-01</t>
+  </si>
+  <si>
+    <t>April 1, 2003</t>
+  </si>
+  <si>
+    <t>2003-04-01</t>
+  </si>
+  <si>
+    <t>February 1, 2005</t>
+  </si>
+  <si>
+    <t>2005-02-01</t>
+  </si>
+  <si>
+    <t>March 1, 2005</t>
+  </si>
+  <si>
+    <t>2005-03-01</t>
+  </si>
+  <si>
+    <t>April 1, 2005</t>
+  </si>
+  <si>
+    <t>2005-04-01</t>
+  </si>
+  <si>
+    <t>April 1, 2007</t>
+  </si>
+  <si>
+    <t>2007-04-01</t>
+  </si>
+  <si>
+    <t>The Finigan Wine Letter</t>
+  </si>
+  <si>
+    <t>Volume 1, Number 2-11</t>
+  </si>
+  <si>
+    <t>1988-1989</t>
+  </si>
+  <si>
+    <t>Volume 2, Number 1, 3-6</t>
+  </si>
+  <si>
+    <t>Volume 3, Number 1</t>
+  </si>
+  <si>
+    <t>Volume X, Number 6</t>
+  </si>
+  <si>
+    <t>Volume X, Number 7</t>
+  </si>
+  <si>
+    <t>Volume X, Number 8</t>
+  </si>
+  <si>
+    <t>Volume X, Number 9</t>
+  </si>
+  <si>
+    <t>Volume X, Number 10</t>
+  </si>
+  <si>
+    <t>Volume X, Number 11</t>
+  </si>
+  <si>
+    <t>Volume X, Number 12</t>
+  </si>
+  <si>
+    <t>Volume XI, Number 1-2</t>
+  </si>
+  <si>
+    <t>Volume XI, Number 3</t>
+  </si>
+  <si>
+    <t>Volume XI, Number 4</t>
+  </si>
+  <si>
+    <t>Volume XI, Number 6</t>
+  </si>
+  <si>
+    <t>Volume XI, Number 7</t>
+  </si>
+  <si>
+    <t>Volume XI, Number 8</t>
+  </si>
+  <si>
+    <t>Volume XI, Number 9</t>
+  </si>
+  <si>
+    <t>Volume XI, Number 10</t>
+  </si>
+  <si>
+    <t>Volume XI, Number 11</t>
+  </si>
+  <si>
+    <t>Volume XI, Number 12</t>
+  </si>
+  <si>
+    <t>Aug-Sep 1990</t>
+  </si>
+  <si>
+    <t>1990-08/1990-09</t>
+  </si>
+  <si>
+    <t>Volume XII, Number 1-2</t>
+  </si>
+  <si>
+    <t>Volume XII, Number 3</t>
+  </si>
+  <si>
+    <t>Volume XII, Number 4</t>
+  </si>
+  <si>
+    <t>Volume XII, Number 5</t>
+  </si>
+  <si>
+    <t>International Wine Review</t>
+  </si>
+  <si>
+    <t>February-March 1990</t>
+  </si>
+  <si>
+    <t>1990-02/1990-03</t>
+  </si>
+  <si>
+    <t>OIV General Assembly Resolutions</t>
+  </si>
+  <si>
+    <t>1993.0</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>73rd General Assembly, San Francisco</t>
+  </si>
+  <si>
+    <t>American Wine &amp; Food</t>
+  </si>
+  <si>
+    <t>1989</t>
+  </si>
+  <si>
+    <t>Volume 3, Numbers 2-7,9</t>
+  </si>
+  <si>
+    <t>Needs Assessment: Sonoma State University's School of Business &amp; Economics - Wine Business Education Program</t>
+  </si>
+  <si>
+    <t>January 1996</t>
+  </si>
+  <si>
+    <t>1996-01</t>
   </si>
 </sst>
 </file>
@@ -10778,7 +12490,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Wine-Institute-Public-Relations-Files" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Wine-Institute-Public-Relations-Files" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="D-242-Wine-Institute-list" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -18585,19 +20301,22 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F346"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A328" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="16"/>
-    <col min="3" max="3" width="24.85546875" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.5703125" style="16" customWidth="1"/>
-    <col min="6" max="6" width="46" style="16" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="16"/>
+    <col min="1" max="1" width="12" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="81.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="81.140625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -18736,6 +20455,6657 @@
       </c>
       <c r="F7" s="7" t="s">
         <v>2317</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <v>153</v>
+      </c>
+      <c r="B8" s="16">
+        <v>1</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>3525</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>3526</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>1900</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>3527</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>153</v>
+      </c>
+      <c r="B9" s="16">
+        <v>2</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>3529</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>3530</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>3531</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
+        <v>153</v>
+      </c>
+      <c r="B10" s="16">
+        <v>3</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>3532</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>3533</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
+        <v>153</v>
+      </c>
+      <c r="B11" s="16">
+        <v>4</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>3534</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>3535</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>3531</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
+        <v>153</v>
+      </c>
+      <c r="B12" s="16">
+        <v>5</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>3536</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>3537</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
+        <v>153</v>
+      </c>
+      <c r="B13" s="16">
+        <v>6</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>3538</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>3539</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
+        <v>153</v>
+      </c>
+      <c r="B14" s="16">
+        <v>7</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>3540</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>3541</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
+        <v>153</v>
+      </c>
+      <c r="B15" s="16">
+        <v>8</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>3542</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>3543</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
+        <v>153</v>
+      </c>
+      <c r="B16" s="16">
+        <v>9</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>3544</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>3545</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="16">
+        <v>153</v>
+      </c>
+      <c r="B17" s="16">
+        <v>10</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>3546</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>3547</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>3531</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="16">
+        <v>153</v>
+      </c>
+      <c r="B18" s="16">
+        <v>11</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>3548</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>3549</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>3531</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="16">
+        <v>153</v>
+      </c>
+      <c r="B19" s="16">
+        <v>12</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>3550</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>3551</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>3531</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="16">
+        <v>153</v>
+      </c>
+      <c r="B20" s="16">
+        <v>13</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>3552</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>3553</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>3531</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="16">
+        <v>153</v>
+      </c>
+      <c r="B21" s="16">
+        <v>14</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>3554</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>3555</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>3531</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="16">
+        <v>153</v>
+      </c>
+      <c r="B22" s="16">
+        <v>15</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>3556</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>3557</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>3531</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="16">
+        <v>153</v>
+      </c>
+      <c r="B23" s="16">
+        <v>16</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>3558</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>3559</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>3531</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="16">
+        <v>153</v>
+      </c>
+      <c r="B24" s="16">
+        <v>17</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>3560</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>3561</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>3531</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="16">
+        <v>153</v>
+      </c>
+      <c r="B25" s="16">
+        <v>18</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>3562</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>3563</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>3531</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="16">
+        <v>153</v>
+      </c>
+      <c r="B26" s="16">
+        <v>19</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>3564</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>3565</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>3531</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="16">
+        <v>153</v>
+      </c>
+      <c r="B27" s="16">
+        <v>20</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>3566</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>3567</v>
+      </c>
+      <c r="F27" s="16" t="s">
+        <v>3531</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="16">
+        <v>153</v>
+      </c>
+      <c r="B28" s="16">
+        <v>21</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>3568</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>3569</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>3531</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="16">
+        <v>153</v>
+      </c>
+      <c r="B29" s="16">
+        <v>22</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>3570</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>3571</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>3531</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="16">
+        <v>153</v>
+      </c>
+      <c r="B30" s="16">
+        <v>23</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>3572</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>3573</v>
+      </c>
+      <c r="F30" s="16" t="s">
+        <v>3531</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="16">
+        <v>153</v>
+      </c>
+      <c r="B31" s="16">
+        <v>24</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>3574</v>
+      </c>
+      <c r="E31" s="16" t="s">
+        <v>3575</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="16">
+        <v>153</v>
+      </c>
+      <c r="B32" s="16">
+        <v>25</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>3576</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>3577</v>
+      </c>
+      <c r="F32" s="16" t="s">
+        <v>3531</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="16">
+        <v>153</v>
+      </c>
+      <c r="B33" s="16">
+        <v>26</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>3578</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>3579</v>
+      </c>
+      <c r="F33" s="16" t="s">
+        <v>3531</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="16">
+        <v>153</v>
+      </c>
+      <c r="B34" s="16">
+        <v>27</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>3580</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>3581</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="16">
+        <v>153</v>
+      </c>
+      <c r="B35" s="16">
+        <v>28</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>3582</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>3583</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="16">
+        <v>153</v>
+      </c>
+      <c r="B36" s="16">
+        <v>29</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>3584</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>3585</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="16">
+        <v>153</v>
+      </c>
+      <c r="B37" s="16">
+        <v>30</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>3586</v>
+      </c>
+      <c r="E37" s="16" t="s">
+        <v>3587</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="16">
+        <v>153</v>
+      </c>
+      <c r="B38" s="16">
+        <v>31</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>3588</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>3589</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="16">
+        <v>153</v>
+      </c>
+      <c r="B39" s="16">
+        <v>32</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>3590</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>3591</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="16">
+        <v>153</v>
+      </c>
+      <c r="B40" s="16">
+        <v>33</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>3592</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>3593</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="16">
+        <v>153</v>
+      </c>
+      <c r="B41" s="16">
+        <v>34</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>3594</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>3595</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="16">
+        <v>153</v>
+      </c>
+      <c r="B42" s="16">
+        <v>35</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>3596</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>3597</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="16">
+        <v>153</v>
+      </c>
+      <c r="B43" s="16">
+        <v>36</v>
+      </c>
+      <c r="C43" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>3598</v>
+      </c>
+      <c r="E43" s="16" t="s">
+        <v>3599</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="16">
+        <v>153</v>
+      </c>
+      <c r="B44" s="16">
+        <v>37</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>3600</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>3601</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="16">
+        <v>153</v>
+      </c>
+      <c r="B45" s="16">
+        <v>38</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D45" s="16" t="s">
+        <v>3602</v>
+      </c>
+      <c r="E45" s="16" t="s">
+        <v>3603</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="16">
+        <v>153</v>
+      </c>
+      <c r="B46" s="16">
+        <v>39</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D46" s="16" t="s">
+        <v>3604</v>
+      </c>
+      <c r="E46" s="16" t="s">
+        <v>3605</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="16">
+        <v>153</v>
+      </c>
+      <c r="B47" s="16">
+        <v>40</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D47" s="16" t="s">
+        <v>3606</v>
+      </c>
+      <c r="E47" s="16" t="s">
+        <v>3607</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="16">
+        <v>153</v>
+      </c>
+      <c r="B48" s="16">
+        <v>41</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D48" s="16" t="s">
+        <v>3608</v>
+      </c>
+      <c r="E48" s="16" t="s">
+        <v>3609</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="16">
+        <v>153</v>
+      </c>
+      <c r="B49" s="16">
+        <v>42</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>3610</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>3611</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="16">
+        <v>153</v>
+      </c>
+      <c r="B50" s="16">
+        <v>43</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D50" s="16" t="s">
+        <v>3612</v>
+      </c>
+      <c r="E50" s="16" t="s">
+        <v>3613</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="16">
+        <v>153</v>
+      </c>
+      <c r="B51" s="16">
+        <v>44</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>3614</v>
+      </c>
+      <c r="E51" s="16" t="s">
+        <v>3615</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="16">
+        <v>153</v>
+      </c>
+      <c r="B52" s="16">
+        <v>45</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>3616</v>
+      </c>
+      <c r="E52" s="16" t="s">
+        <v>3617</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="16">
+        <v>153</v>
+      </c>
+      <c r="B53" s="16">
+        <v>46</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>3618</v>
+      </c>
+      <c r="E53" s="16" t="s">
+        <v>3619</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="16">
+        <v>153</v>
+      </c>
+      <c r="B54" s="16">
+        <v>47</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>3620</v>
+      </c>
+      <c r="E54" s="16" t="s">
+        <v>3621</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="16">
+        <v>153</v>
+      </c>
+      <c r="B55" s="16">
+        <v>48</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D55" s="16" t="s">
+        <v>3622</v>
+      </c>
+      <c r="E55" s="16" t="s">
+        <v>3623</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="16">
+        <v>153</v>
+      </c>
+      <c r="B56" s="16">
+        <v>49</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D56" s="16" t="s">
+        <v>3624</v>
+      </c>
+      <c r="E56" s="16" t="s">
+        <v>3625</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="16">
+        <v>153</v>
+      </c>
+      <c r="B57" s="16">
+        <v>50</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D57" s="16" t="s">
+        <v>3626</v>
+      </c>
+      <c r="E57" s="16" t="s">
+        <v>3627</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="16">
+        <v>153</v>
+      </c>
+      <c r="B58" s="16">
+        <v>51</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D58" s="16" t="s">
+        <v>3628</v>
+      </c>
+      <c r="E58" s="16" t="s">
+        <v>3629</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="16">
+        <v>153</v>
+      </c>
+      <c r="B59" s="16">
+        <v>52</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D59" s="16" t="s">
+        <v>3630</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>3631</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="16">
+        <v>153</v>
+      </c>
+      <c r="B60" s="16">
+        <v>53</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>3632</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>3633</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="16">
+        <v>153</v>
+      </c>
+      <c r="B61" s="16">
+        <v>54</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D61" s="16" t="s">
+        <v>3634</v>
+      </c>
+      <c r="E61" s="16" t="s">
+        <v>3635</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="16">
+        <v>153</v>
+      </c>
+      <c r="B62" s="16">
+        <v>55</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D62" s="16" t="s">
+        <v>3636</v>
+      </c>
+      <c r="E62" s="16" t="s">
+        <v>3637</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="16">
+        <v>153</v>
+      </c>
+      <c r="B63" s="16">
+        <v>56</v>
+      </c>
+      <c r="C63" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D63" s="16" t="s">
+        <v>3638</v>
+      </c>
+      <c r="E63" s="16" t="s">
+        <v>3639</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="16">
+        <v>153</v>
+      </c>
+      <c r="B64" s="16">
+        <v>57</v>
+      </c>
+      <c r="C64" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D64" s="16" t="s">
+        <v>3640</v>
+      </c>
+      <c r="E64" s="16" t="s">
+        <v>3641</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="16">
+        <v>153</v>
+      </c>
+      <c r="B65" s="16">
+        <v>58</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D65" s="16" t="s">
+        <v>3642</v>
+      </c>
+      <c r="E65" s="16" t="s">
+        <v>3643</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="16">
+        <v>153</v>
+      </c>
+      <c r="B66" s="16">
+        <v>59</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D66" s="16" t="s">
+        <v>3644</v>
+      </c>
+      <c r="E66" s="16" t="s">
+        <v>3645</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="16">
+        <v>153</v>
+      </c>
+      <c r="B67" s="16">
+        <v>60</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D67" s="16" t="s">
+        <v>3646</v>
+      </c>
+      <c r="E67" s="16" t="s">
+        <v>3647</v>
+      </c>
+      <c r="F67" s="16" t="s">
+        <v>3648</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="16">
+        <v>153</v>
+      </c>
+      <c r="B68" s="16">
+        <v>61</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D68" s="16" t="s">
+        <v>3649</v>
+      </c>
+      <c r="E68" s="16" t="s">
+        <v>3650</v>
+      </c>
+      <c r="F68" s="16" t="s">
+        <v>3651</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="16">
+        <v>153</v>
+      </c>
+      <c r="B69" s="16">
+        <v>62</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D69" s="16" t="s">
+        <v>3649</v>
+      </c>
+      <c r="E69" s="16" t="s">
+        <v>3650</v>
+      </c>
+      <c r="F69" s="16" t="s">
+        <v>3652</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="16">
+        <v>153</v>
+      </c>
+      <c r="B70" s="16">
+        <v>63</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D70" s="16" t="s">
+        <v>3649</v>
+      </c>
+      <c r="E70" s="16" t="s">
+        <v>3650</v>
+      </c>
+      <c r="F70" s="16" t="s">
+        <v>3653</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="16">
+        <v>153</v>
+      </c>
+      <c r="B71" s="16">
+        <v>64</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D71" s="16" t="s">
+        <v>3649</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>3650</v>
+      </c>
+      <c r="F71" s="16" t="s">
+        <v>3654</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="16">
+        <v>153</v>
+      </c>
+      <c r="B72" s="16">
+        <v>65</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D72" s="16" t="s">
+        <v>3649</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>3650</v>
+      </c>
+      <c r="F72" s="16" t="s">
+        <v>3655</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="16">
+        <v>153</v>
+      </c>
+      <c r="B73" s="16">
+        <v>66</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>3649</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>3650</v>
+      </c>
+      <c r="F73" s="16" t="s">
+        <v>3656</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="16">
+        <v>153</v>
+      </c>
+      <c r="B74" s="16">
+        <v>67</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D74" s="16" t="s">
+        <v>3657</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>3658</v>
+      </c>
+      <c r="F74" s="16" t="s">
+        <v>3659</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="16">
+        <v>153</v>
+      </c>
+      <c r="B75" s="16">
+        <v>68</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>3657</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>3658</v>
+      </c>
+      <c r="F75" s="16" t="s">
+        <v>3660</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="16">
+        <v>153</v>
+      </c>
+      <c r="B76" s="16">
+        <v>69</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>3657</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>3658</v>
+      </c>
+      <c r="F76" s="16" t="s">
+        <v>3661</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="16">
+        <v>153</v>
+      </c>
+      <c r="B77" s="16">
+        <v>70</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D77" s="16" t="s">
+        <v>3657</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>3658</v>
+      </c>
+      <c r="F77" s="16" t="s">
+        <v>3662</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="16">
+        <v>153</v>
+      </c>
+      <c r="B78" s="16">
+        <v>71</v>
+      </c>
+      <c r="C78" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D78" s="16" t="s">
+        <v>3657</v>
+      </c>
+      <c r="E78" s="16" t="s">
+        <v>3658</v>
+      </c>
+      <c r="F78" s="16" t="s">
+        <v>3663</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="16">
+        <v>153</v>
+      </c>
+      <c r="B79" s="16">
+        <v>72</v>
+      </c>
+      <c r="C79" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>3657</v>
+      </c>
+      <c r="E79" s="16" t="s">
+        <v>3658</v>
+      </c>
+      <c r="F79" s="16" t="s">
+        <v>3664</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="16">
+        <v>153</v>
+      </c>
+      <c r="B80" s="16">
+        <v>73</v>
+      </c>
+      <c r="C80" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>3657</v>
+      </c>
+      <c r="E80" s="16" t="s">
+        <v>3658</v>
+      </c>
+      <c r="F80" s="16" t="s">
+        <v>3665</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="16">
+        <v>153</v>
+      </c>
+      <c r="B81" s="16">
+        <v>74</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D81" s="16" t="s">
+        <v>3657</v>
+      </c>
+      <c r="E81" s="16" t="s">
+        <v>3658</v>
+      </c>
+      <c r="F81" s="16" t="s">
+        <v>3666</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="16">
+        <v>153</v>
+      </c>
+      <c r="B82" s="16">
+        <v>75</v>
+      </c>
+      <c r="C82" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D82" s="16" t="s">
+        <v>3657</v>
+      </c>
+      <c r="E82" s="16" t="s">
+        <v>3658</v>
+      </c>
+      <c r="F82" s="16" t="s">
+        <v>3667</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="16">
+        <v>153</v>
+      </c>
+      <c r="B83" s="16">
+        <v>76</v>
+      </c>
+      <c r="C83" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D83" s="16" t="s">
+        <v>3668</v>
+      </c>
+      <c r="E83" s="16" t="s">
+        <v>3669</v>
+      </c>
+      <c r="F83" s="16" t="s">
+        <v>3670</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="16">
+        <v>153</v>
+      </c>
+      <c r="B84" s="16">
+        <v>77</v>
+      </c>
+      <c r="C84" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D84" s="16" t="s">
+        <v>3668</v>
+      </c>
+      <c r="E84" s="16" t="s">
+        <v>3669</v>
+      </c>
+      <c r="F84" s="16" t="s">
+        <v>3671</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="16">
+        <v>153</v>
+      </c>
+      <c r="B85" s="16">
+        <v>78</v>
+      </c>
+      <c r="C85" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D85" s="16" t="s">
+        <v>3668</v>
+      </c>
+      <c r="E85" s="16" t="s">
+        <v>3669</v>
+      </c>
+      <c r="F85" s="16" t="s">
+        <v>3672</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="16">
+        <v>153</v>
+      </c>
+      <c r="B86" s="16">
+        <v>79</v>
+      </c>
+      <c r="C86" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D86" s="16" t="s">
+        <v>3668</v>
+      </c>
+      <c r="E86" s="16" t="s">
+        <v>3669</v>
+      </c>
+      <c r="F86" s="16" t="s">
+        <v>3673</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="16">
+        <v>153</v>
+      </c>
+      <c r="B87" s="16">
+        <v>80</v>
+      </c>
+      <c r="C87" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D87" s="16" t="s">
+        <v>3668</v>
+      </c>
+      <c r="E87" s="16" t="s">
+        <v>3669</v>
+      </c>
+      <c r="F87" s="16" t="s">
+        <v>3674</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="16">
+        <v>153</v>
+      </c>
+      <c r="B88" s="16">
+        <v>81</v>
+      </c>
+      <c r="C88" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D88" s="16" t="s">
+        <v>3668</v>
+      </c>
+      <c r="E88" s="16" t="s">
+        <v>3669</v>
+      </c>
+      <c r="F88" s="16" t="s">
+        <v>3675</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="16">
+        <v>153</v>
+      </c>
+      <c r="B89" s="16">
+        <v>82</v>
+      </c>
+      <c r="C89" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D89" s="16" t="s">
+        <v>3668</v>
+      </c>
+      <c r="E89" s="16" t="s">
+        <v>3669</v>
+      </c>
+      <c r="F89" s="16" t="s">
+        <v>3676</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="16">
+        <v>153</v>
+      </c>
+      <c r="B90" s="16">
+        <v>83</v>
+      </c>
+      <c r="C90" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D90" s="16" t="s">
+        <v>3668</v>
+      </c>
+      <c r="E90" s="16" t="s">
+        <v>3669</v>
+      </c>
+      <c r="F90" s="16" t="s">
+        <v>3677</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="16">
+        <v>153</v>
+      </c>
+      <c r="B91" s="16">
+        <v>84</v>
+      </c>
+      <c r="C91" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D91" s="16" t="s">
+        <v>3678</v>
+      </c>
+      <c r="E91" s="16" t="s">
+        <v>3679</v>
+      </c>
+      <c r="F91" s="16" t="s">
+        <v>3680</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="16">
+        <v>153</v>
+      </c>
+      <c r="B92" s="16">
+        <v>85</v>
+      </c>
+      <c r="C92" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D92" s="16" t="s">
+        <v>3681</v>
+      </c>
+      <c r="E92" s="16" t="s">
+        <v>3682</v>
+      </c>
+      <c r="F92" s="16" t="s">
+        <v>3683</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="16">
+        <v>153</v>
+      </c>
+      <c r="B93" s="16">
+        <v>86</v>
+      </c>
+      <c r="C93" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D93" s="16" t="s">
+        <v>3681</v>
+      </c>
+      <c r="E93" s="16" t="s">
+        <v>3682</v>
+      </c>
+      <c r="F93" s="16" t="s">
+        <v>3684</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="16">
+        <v>153</v>
+      </c>
+      <c r="B94" s="16">
+        <v>87</v>
+      </c>
+      <c r="C94" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D94" s="16" t="s">
+        <v>3681</v>
+      </c>
+      <c r="E94" s="16" t="s">
+        <v>3682</v>
+      </c>
+      <c r="F94" s="16" t="s">
+        <v>3685</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="16">
+        <v>153</v>
+      </c>
+      <c r="B95" s="16">
+        <v>88</v>
+      </c>
+      <c r="C95" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D95" s="16" t="s">
+        <v>3681</v>
+      </c>
+      <c r="E95" s="16" t="s">
+        <v>3682</v>
+      </c>
+      <c r="F95" s="16" t="s">
+        <v>3686</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="16">
+        <v>153</v>
+      </c>
+      <c r="B96" s="16">
+        <v>89</v>
+      </c>
+      <c r="C96" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D96" s="16" t="s">
+        <v>3681</v>
+      </c>
+      <c r="E96" s="16" t="s">
+        <v>3682</v>
+      </c>
+      <c r="F96" s="16" t="s">
+        <v>3687</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="16">
+        <v>153</v>
+      </c>
+      <c r="B97" s="16">
+        <v>90</v>
+      </c>
+      <c r="C97" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D97" s="16" t="s">
+        <v>3681</v>
+      </c>
+      <c r="E97" s="16" t="s">
+        <v>3682</v>
+      </c>
+      <c r="F97" s="16" t="s">
+        <v>3688</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="16">
+        <v>153</v>
+      </c>
+      <c r="B98" s="16">
+        <v>91</v>
+      </c>
+      <c r="C98" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D98" s="16" t="s">
+        <v>3681</v>
+      </c>
+      <c r="E98" s="16" t="s">
+        <v>3682</v>
+      </c>
+      <c r="F98" s="16" t="s">
+        <v>3689</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="16">
+        <v>153</v>
+      </c>
+      <c r="B99" s="16">
+        <v>92</v>
+      </c>
+      <c r="C99" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D99" s="16" t="s">
+        <v>3681</v>
+      </c>
+      <c r="E99" s="16" t="s">
+        <v>3682</v>
+      </c>
+      <c r="F99" s="16" t="s">
+        <v>3690</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="16">
+        <v>153</v>
+      </c>
+      <c r="B100" s="16">
+        <v>93</v>
+      </c>
+      <c r="C100" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D100" s="16" t="s">
+        <v>3681</v>
+      </c>
+      <c r="E100" s="16" t="s">
+        <v>3682</v>
+      </c>
+      <c r="F100" s="16" t="s">
+        <v>3691</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101" s="16">
+        <v>153</v>
+      </c>
+      <c r="B101" s="16">
+        <v>94</v>
+      </c>
+      <c r="C101" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D101" s="16" t="s">
+        <v>3681</v>
+      </c>
+      <c r="E101" s="16" t="s">
+        <v>3682</v>
+      </c>
+      <c r="F101" s="16" t="s">
+        <v>3692</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="16">
+        <v>153</v>
+      </c>
+      <c r="B102" s="16">
+        <v>95</v>
+      </c>
+      <c r="C102" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D102" s="16" t="s">
+        <v>3681</v>
+      </c>
+      <c r="E102" s="16" t="s">
+        <v>3682</v>
+      </c>
+      <c r="F102" s="16" t="s">
+        <v>3693</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="16">
+        <v>153</v>
+      </c>
+      <c r="B103" s="16">
+        <v>96</v>
+      </c>
+      <c r="C103" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D103" s="16" t="s">
+        <v>3681</v>
+      </c>
+      <c r="E103" s="16" t="s">
+        <v>3682</v>
+      </c>
+      <c r="F103" s="16" t="s">
+        <v>3694</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104" s="16">
+        <v>153</v>
+      </c>
+      <c r="B104" s="16">
+        <v>97</v>
+      </c>
+      <c r="C104" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D104" s="16" t="s">
+        <v>3695</v>
+      </c>
+      <c r="E104" s="16" t="s">
+        <v>3696</v>
+      </c>
+      <c r="F104" s="16" t="s">
+        <v>3697</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="16">
+        <v>153</v>
+      </c>
+      <c r="B105" s="16">
+        <v>98</v>
+      </c>
+      <c r="C105" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D105" s="16" t="s">
+        <v>3695</v>
+      </c>
+      <c r="E105" s="16" t="s">
+        <v>3696</v>
+      </c>
+      <c r="F105" s="16" t="s">
+        <v>3698</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106" s="16">
+        <v>153</v>
+      </c>
+      <c r="B106" s="16">
+        <v>99</v>
+      </c>
+      <c r="C106" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D106" s="16" t="s">
+        <v>3695</v>
+      </c>
+      <c r="E106" s="16" t="s">
+        <v>3696</v>
+      </c>
+      <c r="F106" s="16" t="s">
+        <v>3699</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107" s="16">
+        <v>153</v>
+      </c>
+      <c r="B107" s="16">
+        <v>100</v>
+      </c>
+      <c r="C107" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D107" s="16" t="s">
+        <v>3695</v>
+      </c>
+      <c r="E107" s="16" t="s">
+        <v>3696</v>
+      </c>
+      <c r="F107" s="16" t="s">
+        <v>3700</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="16">
+        <v>153</v>
+      </c>
+      <c r="B108" s="16">
+        <v>101</v>
+      </c>
+      <c r="C108" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D108" s="16" t="s">
+        <v>3695</v>
+      </c>
+      <c r="E108" s="16" t="s">
+        <v>3696</v>
+      </c>
+      <c r="F108" s="16" t="s">
+        <v>3701</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="16">
+        <v>153</v>
+      </c>
+      <c r="B109" s="16">
+        <v>102</v>
+      </c>
+      <c r="C109" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D109" s="16" t="s">
+        <v>3702</v>
+      </c>
+      <c r="E109" s="16" t="s">
+        <v>3703</v>
+      </c>
+      <c r="F109" s="16" t="s">
+        <v>3704</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" s="16">
+        <v>153</v>
+      </c>
+      <c r="B110" s="16">
+        <v>103</v>
+      </c>
+      <c r="C110" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D110" s="16" t="s">
+        <v>3702</v>
+      </c>
+      <c r="E110" s="16" t="s">
+        <v>3703</v>
+      </c>
+      <c r="F110" s="16" t="s">
+        <v>3705</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="16">
+        <v>153</v>
+      </c>
+      <c r="B111" s="16">
+        <v>104</v>
+      </c>
+      <c r="C111" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D111" s="16" t="s">
+        <v>3702</v>
+      </c>
+      <c r="E111" s="16" t="s">
+        <v>3703</v>
+      </c>
+      <c r="F111" s="16" t="s">
+        <v>3706</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="16">
+        <v>153</v>
+      </c>
+      <c r="B112" s="16">
+        <v>105</v>
+      </c>
+      <c r="C112" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D112" s="16" t="s">
+        <v>3702</v>
+      </c>
+      <c r="E112" s="16" t="s">
+        <v>3703</v>
+      </c>
+      <c r="F112" s="16" t="s">
+        <v>3707</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="16">
+        <v>153</v>
+      </c>
+      <c r="B113" s="16">
+        <v>106</v>
+      </c>
+      <c r="C113" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D113" s="16" t="s">
+        <v>3708</v>
+      </c>
+      <c r="E113" s="16" t="s">
+        <v>3709</v>
+      </c>
+      <c r="F113" s="16" t="s">
+        <v>3710</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="16">
+        <v>153</v>
+      </c>
+      <c r="B114" s="16">
+        <v>107</v>
+      </c>
+      <c r="C114" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D114" s="16" t="s">
+        <v>3708</v>
+      </c>
+      <c r="E114" s="16" t="s">
+        <v>3709</v>
+      </c>
+      <c r="F114" s="16" t="s">
+        <v>3711</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="16">
+        <v>153</v>
+      </c>
+      <c r="B115" s="16">
+        <v>108</v>
+      </c>
+      <c r="C115" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D115" s="16" t="s">
+        <v>3708</v>
+      </c>
+      <c r="E115" s="16" t="s">
+        <v>3709</v>
+      </c>
+      <c r="F115" s="16" t="s">
+        <v>3712</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="16">
+        <v>153</v>
+      </c>
+      <c r="B116" s="16">
+        <v>109</v>
+      </c>
+      <c r="C116" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D116" s="16" t="s">
+        <v>3713</v>
+      </c>
+      <c r="E116" s="16" t="s">
+        <v>3714</v>
+      </c>
+      <c r="F116" s="16" t="s">
+        <v>3715</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="16">
+        <v>153</v>
+      </c>
+      <c r="B117" s="16">
+        <v>110</v>
+      </c>
+      <c r="C117" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D117" s="16" t="s">
+        <v>3713</v>
+      </c>
+      <c r="E117" s="16" t="s">
+        <v>3714</v>
+      </c>
+      <c r="F117" s="16" t="s">
+        <v>3716</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="16">
+        <v>153</v>
+      </c>
+      <c r="B118" s="16">
+        <v>111</v>
+      </c>
+      <c r="C118" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D118" s="16" t="s">
+        <v>3713</v>
+      </c>
+      <c r="E118" s="16" t="s">
+        <v>3714</v>
+      </c>
+      <c r="F118" s="16" t="s">
+        <v>3717</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="16">
+        <v>153</v>
+      </c>
+      <c r="B119" s="16">
+        <v>112</v>
+      </c>
+      <c r="C119" s="16" t="s">
+        <v>3528</v>
+      </c>
+      <c r="D119" s="16" t="s">
+        <v>3713</v>
+      </c>
+      <c r="E119" s="16" t="s">
+        <v>3714</v>
+      </c>
+      <c r="F119" s="16" t="s">
+        <v>3718</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="16">
+        <v>153</v>
+      </c>
+      <c r="B120" s="16">
+        <v>113</v>
+      </c>
+      <c r="C120" s="16" t="s">
+        <v>3719</v>
+      </c>
+      <c r="D120" s="16" t="s">
+        <v>3720</v>
+      </c>
+      <c r="E120" s="16" t="s">
+        <v>3721</v>
+      </c>
+      <c r="F120" s="16" t="s">
+        <v>3722</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="16">
+        <v>153</v>
+      </c>
+      <c r="B121" s="16">
+        <v>114</v>
+      </c>
+      <c r="C121" s="16" t="s">
+        <v>3723</v>
+      </c>
+      <c r="D121" s="16" t="s">
+        <v>3724</v>
+      </c>
+      <c r="E121" s="16" t="s">
+        <v>3725</v>
+      </c>
+      <c r="F121" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="16">
+        <v>153</v>
+      </c>
+      <c r="B122" s="16">
+        <v>115</v>
+      </c>
+      <c r="C122" s="16" t="s">
+        <v>3727</v>
+      </c>
+      <c r="D122" s="16" t="s">
+        <v>3728</v>
+      </c>
+      <c r="E122" s="16" t="s">
+        <v>3729</v>
+      </c>
+      <c r="F122" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="16">
+        <v>153</v>
+      </c>
+      <c r="B123" s="16">
+        <v>116</v>
+      </c>
+      <c r="C123" s="16" t="s">
+        <v>3727</v>
+      </c>
+      <c r="D123" s="16" t="s">
+        <v>3730</v>
+      </c>
+      <c r="E123" s="16" t="s">
+        <v>3731</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="16">
+        <v>153</v>
+      </c>
+      <c r="B124" s="16">
+        <v>117</v>
+      </c>
+      <c r="C124" s="16" t="s">
+        <v>3732</v>
+      </c>
+      <c r="D124" s="16" t="s">
+        <v>3733</v>
+      </c>
+      <c r="E124" s="16" t="s">
+        <v>3734</v>
+      </c>
+      <c r="F124" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="16">
+        <v>153</v>
+      </c>
+      <c r="B125" s="16">
+        <v>118</v>
+      </c>
+      <c r="C125" s="16" t="s">
+        <v>3732</v>
+      </c>
+      <c r="D125" s="16" t="s">
+        <v>3735</v>
+      </c>
+      <c r="E125" s="16" t="s">
+        <v>3736</v>
+      </c>
+      <c r="F125" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126" s="16">
+        <v>153</v>
+      </c>
+      <c r="B126" s="16">
+        <v>119</v>
+      </c>
+      <c r="C126" s="16" t="s">
+        <v>3732</v>
+      </c>
+      <c r="D126" s="16" t="s">
+        <v>3737</v>
+      </c>
+      <c r="E126" s="16" t="s">
+        <v>3738</v>
+      </c>
+      <c r="F126" s="16" t="s">
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127" s="16">
+        <v>153</v>
+      </c>
+      <c r="B127" s="16">
+        <v>120</v>
+      </c>
+      <c r="C127" s="16" t="s">
+        <v>3732</v>
+      </c>
+      <c r="D127" s="16" t="s">
+        <v>3728</v>
+      </c>
+      <c r="E127" s="16" t="s">
+        <v>3729</v>
+      </c>
+      <c r="F127" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="16">
+        <v>153</v>
+      </c>
+      <c r="B128" s="16">
+        <v>121</v>
+      </c>
+      <c r="C128" s="16" t="s">
+        <v>3732</v>
+      </c>
+      <c r="D128" s="16" t="s">
+        <v>3740</v>
+      </c>
+      <c r="E128" s="16" t="s">
+        <v>3741</v>
+      </c>
+      <c r="F128" s="16" t="s">
+        <v>3742</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" s="16">
+        <v>153</v>
+      </c>
+      <c r="B129" s="16">
+        <v>122</v>
+      </c>
+      <c r="C129" s="16" t="s">
+        <v>3743</v>
+      </c>
+      <c r="D129" s="16" t="s">
+        <v>3728</v>
+      </c>
+      <c r="E129" s="16" t="s">
+        <v>3729</v>
+      </c>
+      <c r="F129" s="16" t="s">
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="16">
+        <v>153</v>
+      </c>
+      <c r="B130" s="16">
+        <v>123</v>
+      </c>
+      <c r="C130" s="16" t="s">
+        <v>3743</v>
+      </c>
+      <c r="D130" s="16" t="s">
+        <v>3740</v>
+      </c>
+      <c r="E130" s="16" t="s">
+        <v>3741</v>
+      </c>
+      <c r="F130" s="16" t="s">
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="16">
+        <v>153</v>
+      </c>
+      <c r="B131" s="16">
+        <v>124</v>
+      </c>
+      <c r="C131" s="16" t="s">
+        <v>3743</v>
+      </c>
+      <c r="D131" s="16" t="s">
+        <v>3724</v>
+      </c>
+      <c r="E131" s="16" t="s">
+        <v>3725</v>
+      </c>
+      <c r="F131" s="16" t="s">
+        <v>3744</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132" s="16">
+        <v>156</v>
+      </c>
+      <c r="B132" s="16">
+        <v>1</v>
+      </c>
+      <c r="C132" s="16" t="s">
+        <v>3743</v>
+      </c>
+      <c r="D132" s="16" t="s">
+        <v>3745</v>
+      </c>
+      <c r="E132" s="16" t="s">
+        <v>3746</v>
+      </c>
+      <c r="F132" s="16" t="s">
+        <v>3747</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="16">
+        <v>156</v>
+      </c>
+      <c r="B133" s="16">
+        <v>2</v>
+      </c>
+      <c r="C133" s="16" t="s">
+        <v>3743</v>
+      </c>
+      <c r="D133" s="16" t="s">
+        <v>3748</v>
+      </c>
+      <c r="E133" s="16" t="s">
+        <v>3749</v>
+      </c>
+      <c r="F133" s="16" t="s">
+        <v>3750</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134" s="16">
+        <v>156</v>
+      </c>
+      <c r="B134" s="16">
+        <v>3</v>
+      </c>
+      <c r="C134" s="16" t="s">
+        <v>3743</v>
+      </c>
+      <c r="D134" s="16" t="s">
+        <v>3751</v>
+      </c>
+      <c r="E134" s="16" t="s">
+        <v>3752</v>
+      </c>
+      <c r="F134" s="16" t="s">
+        <v>3753</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="16">
+        <v>156</v>
+      </c>
+      <c r="B135" s="16">
+        <v>4</v>
+      </c>
+      <c r="C135" s="16" t="s">
+        <v>3743</v>
+      </c>
+      <c r="D135" s="16" t="s">
+        <v>3754</v>
+      </c>
+      <c r="E135" s="16" t="s">
+        <v>3755</v>
+      </c>
+      <c r="F135" s="16" t="s">
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="16">
+        <v>156</v>
+      </c>
+      <c r="B136" s="16">
+        <v>5</v>
+      </c>
+      <c r="C136" s="16" t="s">
+        <v>3743</v>
+      </c>
+      <c r="D136" s="16" t="s">
+        <v>3730</v>
+      </c>
+      <c r="E136" s="16" t="s">
+        <v>3731</v>
+      </c>
+      <c r="F136" s="16" t="s">
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="16">
+        <v>156</v>
+      </c>
+      <c r="B137" s="16">
+        <v>6</v>
+      </c>
+      <c r="C137" s="16" t="s">
+        <v>3743</v>
+      </c>
+      <c r="D137" s="16" t="s">
+        <v>3756</v>
+      </c>
+      <c r="E137" s="16" t="s">
+        <v>3757</v>
+      </c>
+      <c r="F137" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="16">
+        <v>156</v>
+      </c>
+      <c r="B138" s="16">
+        <v>7</v>
+      </c>
+      <c r="C138" s="16" t="s">
+        <v>3743</v>
+      </c>
+      <c r="D138" s="16" t="s">
+        <v>3758</v>
+      </c>
+      <c r="E138" s="16" t="s">
+        <v>3759</v>
+      </c>
+      <c r="F138" s="16" t="s">
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="16">
+        <v>156</v>
+      </c>
+      <c r="B139" s="16">
+        <v>8</v>
+      </c>
+      <c r="C139" s="16" t="s">
+        <v>3743</v>
+      </c>
+      <c r="D139" s="16" t="s">
+        <v>3760</v>
+      </c>
+      <c r="E139" s="16" t="s">
+        <v>3761</v>
+      </c>
+      <c r="F139" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="16">
+        <v>156</v>
+      </c>
+      <c r="B140" s="16">
+        <v>9</v>
+      </c>
+      <c r="C140" s="16" t="s">
+        <v>3762</v>
+      </c>
+      <c r="D140" s="16" t="s">
+        <v>3763</v>
+      </c>
+      <c r="E140" s="16" t="s">
+        <v>3764</v>
+      </c>
+      <c r="F140" s="16" t="s">
+        <v>3765</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="16">
+        <v>156</v>
+      </c>
+      <c r="B141" s="16">
+        <v>10</v>
+      </c>
+      <c r="C141" s="16" t="s">
+        <v>3762</v>
+      </c>
+      <c r="D141" s="16" t="s">
+        <v>3766</v>
+      </c>
+      <c r="E141" s="16" t="s">
+        <v>3767</v>
+      </c>
+      <c r="F141" s="16" t="s">
+        <v>3768</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="16">
+        <v>156</v>
+      </c>
+      <c r="B142" s="16">
+        <v>11</v>
+      </c>
+      <c r="C142" s="16" t="s">
+        <v>3762</v>
+      </c>
+      <c r="D142" s="16" t="s">
+        <v>3733</v>
+      </c>
+      <c r="E142" s="16" t="s">
+        <v>3734</v>
+      </c>
+      <c r="F142" s="16" t="s">
+        <v>3769</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="16">
+        <v>156</v>
+      </c>
+      <c r="B143" s="16">
+        <v>12</v>
+      </c>
+      <c r="C143" s="16" t="s">
+        <v>3762</v>
+      </c>
+      <c r="D143" s="16" t="s">
+        <v>3735</v>
+      </c>
+      <c r="E143" s="16" t="s">
+        <v>3736</v>
+      </c>
+      <c r="F143" s="16" t="s">
+        <v>3770</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="16">
+        <v>156</v>
+      </c>
+      <c r="B144" s="16">
+        <v>13</v>
+      </c>
+      <c r="C144" s="16" t="s">
+        <v>3762</v>
+      </c>
+      <c r="D144" s="16" t="s">
+        <v>3737</v>
+      </c>
+      <c r="E144" s="16" t="s">
+        <v>3738</v>
+      </c>
+      <c r="F144" s="16" t="s">
+        <v>3771</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="16">
+        <v>156</v>
+      </c>
+      <c r="B145" s="16">
+        <v>14</v>
+      </c>
+      <c r="C145" s="16" t="s">
+        <v>3762</v>
+      </c>
+      <c r="D145" s="16" t="s">
+        <v>3728</v>
+      </c>
+      <c r="E145" s="16" t="s">
+        <v>3729</v>
+      </c>
+      <c r="F145" s="16" t="s">
+        <v>3772</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="16">
+        <v>156</v>
+      </c>
+      <c r="B146" s="16">
+        <v>15</v>
+      </c>
+      <c r="C146" s="16" t="s">
+        <v>3762</v>
+      </c>
+      <c r="D146" s="16" t="s">
+        <v>3740</v>
+      </c>
+      <c r="E146" s="16" t="s">
+        <v>3741</v>
+      </c>
+      <c r="F146" s="16" t="s">
+        <v>3773</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="16">
+        <v>156</v>
+      </c>
+      <c r="B147" s="16">
+        <v>16</v>
+      </c>
+      <c r="C147" s="16" t="s">
+        <v>3762</v>
+      </c>
+      <c r="D147" s="16" t="s">
+        <v>3724</v>
+      </c>
+      <c r="E147" s="16" t="s">
+        <v>3725</v>
+      </c>
+      <c r="F147" s="16" t="s">
+        <v>3774</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="16">
+        <v>156</v>
+      </c>
+      <c r="B148" s="16">
+        <v>17</v>
+      </c>
+      <c r="C148" s="16" t="s">
+        <v>3762</v>
+      </c>
+      <c r="D148" s="16" t="s">
+        <v>3745</v>
+      </c>
+      <c r="E148" s="16" t="s">
+        <v>3746</v>
+      </c>
+      <c r="F148" s="16" t="s">
+        <v>3775</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="16">
+        <v>156</v>
+      </c>
+      <c r="B149" s="16">
+        <v>18</v>
+      </c>
+      <c r="C149" s="16" t="s">
+        <v>3762</v>
+      </c>
+      <c r="D149" s="16" t="s">
+        <v>3748</v>
+      </c>
+      <c r="E149" s="16" t="s">
+        <v>3749</v>
+      </c>
+      <c r="F149" s="16" t="s">
+        <v>3776</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="16">
+        <v>156</v>
+      </c>
+      <c r="B150" s="16">
+        <v>19</v>
+      </c>
+      <c r="C150" s="16" t="s">
+        <v>3762</v>
+      </c>
+      <c r="D150" s="16" t="s">
+        <v>3751</v>
+      </c>
+      <c r="E150" s="16" t="s">
+        <v>3752</v>
+      </c>
+      <c r="F150" s="16" t="s">
+        <v>3777</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="16">
+        <v>156</v>
+      </c>
+      <c r="B151" s="16">
+        <v>20</v>
+      </c>
+      <c r="C151" s="16" t="s">
+        <v>3762</v>
+      </c>
+      <c r="D151" s="16" t="s">
+        <v>3754</v>
+      </c>
+      <c r="E151" s="16" t="s">
+        <v>3755</v>
+      </c>
+      <c r="F151" s="16" t="s">
+        <v>3778</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="16">
+        <v>156</v>
+      </c>
+      <c r="B152" s="16">
+        <v>21</v>
+      </c>
+      <c r="C152" s="16" t="s">
+        <v>3762</v>
+      </c>
+      <c r="D152" s="16" t="s">
+        <v>3779</v>
+      </c>
+      <c r="E152" s="16" t="s">
+        <v>3780</v>
+      </c>
+      <c r="F152" s="16" t="s">
+        <v>3781</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="16">
+        <v>156</v>
+      </c>
+      <c r="B153" s="16">
+        <v>22</v>
+      </c>
+      <c r="C153" s="16" t="s">
+        <v>3762</v>
+      </c>
+      <c r="D153" s="16" t="s">
+        <v>3730</v>
+      </c>
+      <c r="E153" s="16" t="s">
+        <v>3731</v>
+      </c>
+      <c r="F153" s="16" t="s">
+        <v>3782</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="16">
+        <v>156</v>
+      </c>
+      <c r="B154" s="16">
+        <v>23</v>
+      </c>
+      <c r="C154" s="16" t="s">
+        <v>3762</v>
+      </c>
+      <c r="D154" s="16" t="s">
+        <v>3756</v>
+      </c>
+      <c r="E154" s="16" t="s">
+        <v>3757</v>
+      </c>
+      <c r="F154" s="16" t="s">
+        <v>3783</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="16">
+        <v>156</v>
+      </c>
+      <c r="B155" s="16">
+        <v>24</v>
+      </c>
+      <c r="C155" s="16" t="s">
+        <v>3762</v>
+      </c>
+      <c r="D155" s="16" t="s">
+        <v>3758</v>
+      </c>
+      <c r="E155" s="16" t="s">
+        <v>3759</v>
+      </c>
+      <c r="F155" s="16" t="s">
+        <v>3784</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="16">
+        <v>156</v>
+      </c>
+      <c r="B156" s="16">
+        <v>25</v>
+      </c>
+      <c r="C156" s="16" t="s">
+        <v>3762</v>
+      </c>
+      <c r="D156" s="16" t="s">
+        <v>3785</v>
+      </c>
+      <c r="E156" s="16" t="s">
+        <v>3786</v>
+      </c>
+      <c r="F156" s="16" t="s">
+        <v>3787</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="16">
+        <v>156</v>
+      </c>
+      <c r="B157" s="16">
+        <v>26</v>
+      </c>
+      <c r="C157" s="16" t="s">
+        <v>3762</v>
+      </c>
+      <c r="D157" s="16" t="s">
+        <v>3760</v>
+      </c>
+      <c r="E157" s="16" t="s">
+        <v>3761</v>
+      </c>
+      <c r="F157" s="16" t="s">
+        <v>3788</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="16">
+        <v>156</v>
+      </c>
+      <c r="B158" s="16">
+        <v>27</v>
+      </c>
+      <c r="C158" s="16" t="s">
+        <v>3762</v>
+      </c>
+      <c r="D158" s="16" t="s">
+        <v>3789</v>
+      </c>
+      <c r="E158" s="16" t="s">
+        <v>3790</v>
+      </c>
+      <c r="F158" s="16" t="s">
+        <v>3791</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="16">
+        <v>156</v>
+      </c>
+      <c r="B159" s="16">
+        <v>28</v>
+      </c>
+      <c r="C159" s="16" t="s">
+        <v>3762</v>
+      </c>
+      <c r="D159" s="16" t="s">
+        <v>3792</v>
+      </c>
+      <c r="E159" s="16" t="s">
+        <v>3793</v>
+      </c>
+      <c r="F159" s="16" t="s">
+        <v>3794</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="16">
+        <v>156</v>
+      </c>
+      <c r="B160" s="16">
+        <v>29</v>
+      </c>
+      <c r="C160" s="16" t="s">
+        <v>3762</v>
+      </c>
+      <c r="D160" s="16" t="s">
+        <v>3795</v>
+      </c>
+      <c r="E160" s="16" t="s">
+        <v>3796</v>
+      </c>
+      <c r="F160" s="16" t="s">
+        <v>3797</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="16">
+        <v>156</v>
+      </c>
+      <c r="B161" s="16">
+        <v>30</v>
+      </c>
+      <c r="C161" s="16" t="s">
+        <v>3762</v>
+      </c>
+      <c r="D161" s="16" t="s">
+        <v>3798</v>
+      </c>
+      <c r="E161" s="16" t="s">
+        <v>3799</v>
+      </c>
+      <c r="F161" s="16" t="s">
+        <v>3800</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="16">
+        <v>156</v>
+      </c>
+      <c r="B162" s="16">
+        <v>31</v>
+      </c>
+      <c r="C162" s="16" t="s">
+        <v>3762</v>
+      </c>
+      <c r="D162" s="16" t="s">
+        <v>3801</v>
+      </c>
+      <c r="E162" s="16" t="s">
+        <v>3802</v>
+      </c>
+      <c r="F162" s="16" t="s">
+        <v>3803</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="16">
+        <v>156</v>
+      </c>
+      <c r="B163" s="16">
+        <v>32</v>
+      </c>
+      <c r="C163" s="16" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D163" s="16" t="s">
+        <v>3805</v>
+      </c>
+      <c r="E163" s="16" t="s">
+        <v>3806</v>
+      </c>
+      <c r="F163" s="16" t="s">
+        <v>3807</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="16">
+        <v>156</v>
+      </c>
+      <c r="B164" s="16">
+        <v>33</v>
+      </c>
+      <c r="C164" s="16" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D164" s="16" t="s">
+        <v>3808</v>
+      </c>
+      <c r="E164" s="16" t="s">
+        <v>3809</v>
+      </c>
+      <c r="F164" s="16" t="s">
+        <v>3810</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="16">
+        <v>156</v>
+      </c>
+      <c r="B165" s="16">
+        <v>34</v>
+      </c>
+      <c r="C165" s="16" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D165" s="16" t="s">
+        <v>3811</v>
+      </c>
+      <c r="E165" s="16" t="s">
+        <v>3812</v>
+      </c>
+      <c r="F165" s="16" t="s">
+        <v>3813</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="16">
+        <v>156</v>
+      </c>
+      <c r="B166" s="16">
+        <v>35</v>
+      </c>
+      <c r="C166" s="16" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D166" s="16" t="s">
+        <v>3814</v>
+      </c>
+      <c r="E166" s="16" t="s">
+        <v>3815</v>
+      </c>
+      <c r="F166" s="16" t="s">
+        <v>3816</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="16">
+        <v>156</v>
+      </c>
+      <c r="B167" s="16">
+        <v>36</v>
+      </c>
+      <c r="C167" s="16" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D167" s="16" t="s">
+        <v>3817</v>
+      </c>
+      <c r="E167" s="16" t="s">
+        <v>3818</v>
+      </c>
+      <c r="F167" s="16" t="s">
+        <v>3819</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="16">
+        <v>156</v>
+      </c>
+      <c r="B168" s="16">
+        <v>37</v>
+      </c>
+      <c r="C168" s="16" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D168" s="16" t="s">
+        <v>3820</v>
+      </c>
+      <c r="E168" s="16" t="s">
+        <v>3821</v>
+      </c>
+      <c r="F168" s="16" t="s">
+        <v>3822</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="16">
+        <v>156</v>
+      </c>
+      <c r="B169" s="16">
+        <v>38</v>
+      </c>
+      <c r="C169" s="16" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D169" s="16" t="s">
+        <v>3823</v>
+      </c>
+      <c r="E169" s="16" t="s">
+        <v>3824</v>
+      </c>
+      <c r="F169" s="16" t="s">
+        <v>3825</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="16">
+        <v>156</v>
+      </c>
+      <c r="B170" s="16">
+        <v>39</v>
+      </c>
+      <c r="C170" s="16" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D170" s="16" t="s">
+        <v>3826</v>
+      </c>
+      <c r="E170" s="16" t="s">
+        <v>3827</v>
+      </c>
+      <c r="F170" s="16" t="s">
+        <v>3828</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="16">
+        <v>156</v>
+      </c>
+      <c r="B171" s="16">
+        <v>40</v>
+      </c>
+      <c r="C171" s="16" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D171" s="16" t="s">
+        <v>3829</v>
+      </c>
+      <c r="E171" s="16" t="s">
+        <v>3830</v>
+      </c>
+      <c r="F171" s="16" t="s">
+        <v>3831</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="16">
+        <v>156</v>
+      </c>
+      <c r="B172" s="16">
+        <v>41</v>
+      </c>
+      <c r="C172" s="16" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D172" s="16" t="s">
+        <v>3832</v>
+      </c>
+      <c r="E172" s="16" t="s">
+        <v>3833</v>
+      </c>
+      <c r="F172" s="16" t="s">
+        <v>3834</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="16">
+        <v>156</v>
+      </c>
+      <c r="B173" s="16">
+        <v>42</v>
+      </c>
+      <c r="C173" s="16" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D173" s="16" t="s">
+        <v>3835</v>
+      </c>
+      <c r="E173" s="16" t="s">
+        <v>3836</v>
+      </c>
+      <c r="F173" s="16" t="s">
+        <v>3837</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="16">
+        <v>156</v>
+      </c>
+      <c r="B174" s="16">
+        <v>43</v>
+      </c>
+      <c r="C174" s="16" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D174" s="16" t="s">
+        <v>3838</v>
+      </c>
+      <c r="E174" s="16" t="s">
+        <v>3839</v>
+      </c>
+      <c r="F174" s="16" t="s">
+        <v>3840</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="16">
+        <v>156</v>
+      </c>
+      <c r="B175" s="16">
+        <v>44</v>
+      </c>
+      <c r="C175" s="16" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D175" s="16" t="s">
+        <v>3841</v>
+      </c>
+      <c r="E175" s="16" t="s">
+        <v>3842</v>
+      </c>
+      <c r="F175" s="16" t="s">
+        <v>3843</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="16">
+        <v>156</v>
+      </c>
+      <c r="B176" s="16">
+        <v>45</v>
+      </c>
+      <c r="C176" s="16" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D176" s="16" t="s">
+        <v>3844</v>
+      </c>
+      <c r="E176" s="16" t="s">
+        <v>3845</v>
+      </c>
+      <c r="F176" s="16" t="s">
+        <v>3846</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="16">
+        <v>156</v>
+      </c>
+      <c r="B177" s="16">
+        <v>46</v>
+      </c>
+      <c r="C177" s="16" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D177" s="16" t="s">
+        <v>3847</v>
+      </c>
+      <c r="E177" s="16" t="s">
+        <v>3848</v>
+      </c>
+      <c r="F177" s="16" t="s">
+        <v>3849</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="16">
+        <v>156</v>
+      </c>
+      <c r="B178" s="16">
+        <v>47</v>
+      </c>
+      <c r="C178" s="16" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D178" s="16" t="s">
+        <v>3850</v>
+      </c>
+      <c r="E178" s="16" t="s">
+        <v>3851</v>
+      </c>
+      <c r="F178" s="16" t="s">
+        <v>3852</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="16">
+        <v>156</v>
+      </c>
+      <c r="B179" s="16">
+        <v>48</v>
+      </c>
+      <c r="C179" s="16" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D179" s="16" t="s">
+        <v>3853</v>
+      </c>
+      <c r="E179" s="16" t="s">
+        <v>3854</v>
+      </c>
+      <c r="F179" s="16" t="s">
+        <v>3855</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="16">
+        <v>156</v>
+      </c>
+      <c r="B180" s="16">
+        <v>49</v>
+      </c>
+      <c r="C180" s="16" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D180" s="16" t="s">
+        <v>3856</v>
+      </c>
+      <c r="E180" s="16" t="s">
+        <v>3857</v>
+      </c>
+      <c r="F180" s="16" t="s">
+        <v>3858</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="16">
+        <v>156</v>
+      </c>
+      <c r="B181" s="16">
+        <v>50</v>
+      </c>
+      <c r="C181" s="16" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D181" s="16" t="s">
+        <v>3859</v>
+      </c>
+      <c r="E181" s="16" t="s">
+        <v>3860</v>
+      </c>
+      <c r="F181" s="16" t="s">
+        <v>3861</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="16">
+        <v>156</v>
+      </c>
+      <c r="B182" s="16">
+        <v>51</v>
+      </c>
+      <c r="C182" s="16" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D182" s="16" t="s">
+        <v>3862</v>
+      </c>
+      <c r="E182" s="16" t="s">
+        <v>3863</v>
+      </c>
+      <c r="F182" s="16" t="s">
+        <v>3864</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="16">
+        <v>156</v>
+      </c>
+      <c r="B183" s="16">
+        <v>52</v>
+      </c>
+      <c r="C183" s="16" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D183" s="16" t="s">
+        <v>3865</v>
+      </c>
+      <c r="E183" s="16" t="s">
+        <v>3866</v>
+      </c>
+      <c r="F183" s="16" t="s">
+        <v>3867</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184" s="16">
+        <v>156</v>
+      </c>
+      <c r="B184" s="16">
+        <v>53</v>
+      </c>
+      <c r="C184" s="16" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D184" s="16" t="s">
+        <v>3868</v>
+      </c>
+      <c r="E184" s="16" t="s">
+        <v>3869</v>
+      </c>
+      <c r="F184" s="16" t="s">
+        <v>3870</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="16">
+        <v>156</v>
+      </c>
+      <c r="B185" s="16">
+        <v>54</v>
+      </c>
+      <c r="C185" s="16" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D185" s="16" t="s">
+        <v>3871</v>
+      </c>
+      <c r="E185" s="16" t="s">
+        <v>3872</v>
+      </c>
+      <c r="F185" s="16" t="s">
+        <v>3873</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="16">
+        <v>156</v>
+      </c>
+      <c r="B186" s="16">
+        <v>55</v>
+      </c>
+      <c r="C186" s="16" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D186" s="16" t="s">
+        <v>3874</v>
+      </c>
+      <c r="E186" s="16" t="s">
+        <v>3875</v>
+      </c>
+      <c r="F186" s="16" t="s">
+        <v>3876</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="16">
+        <v>156</v>
+      </c>
+      <c r="B187" s="16">
+        <v>56</v>
+      </c>
+      <c r="C187" s="16" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D187" s="16" t="s">
+        <v>3877</v>
+      </c>
+      <c r="E187" s="16" t="s">
+        <v>3878</v>
+      </c>
+      <c r="F187" s="16" t="s">
+        <v>3879</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="16">
+        <v>156</v>
+      </c>
+      <c r="B188" s="16">
+        <v>57</v>
+      </c>
+      <c r="C188" s="16" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D188" s="16" t="s">
+        <v>3880</v>
+      </c>
+      <c r="E188" s="16" t="s">
+        <v>3881</v>
+      </c>
+      <c r="F188" s="16" t="s">
+        <v>3882</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="16">
+        <v>156</v>
+      </c>
+      <c r="B189" s="16">
+        <v>58</v>
+      </c>
+      <c r="C189" s="16" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D189" s="16" t="s">
+        <v>3883</v>
+      </c>
+      <c r="E189" s="16" t="s">
+        <v>3884</v>
+      </c>
+      <c r="F189" s="16" t="s">
+        <v>3885</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="16">
+        <v>156</v>
+      </c>
+      <c r="B190" s="16">
+        <v>59</v>
+      </c>
+      <c r="C190" s="16" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D190" s="16" t="s">
+        <v>3886</v>
+      </c>
+      <c r="E190" s="16" t="s">
+        <v>3887</v>
+      </c>
+      <c r="F190" s="16" t="s">
+        <v>3888</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="16">
+        <v>156</v>
+      </c>
+      <c r="B191" s="16">
+        <v>60</v>
+      </c>
+      <c r="C191" s="16" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D191" s="16" t="s">
+        <v>3889</v>
+      </c>
+      <c r="E191" s="16" t="s">
+        <v>3890</v>
+      </c>
+      <c r="F191" s="16" t="s">
+        <v>3891</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="16">
+        <v>156</v>
+      </c>
+      <c r="B192" s="16">
+        <v>61</v>
+      </c>
+      <c r="C192" s="16" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D192" s="16" t="s">
+        <v>3892</v>
+      </c>
+      <c r="E192" s="16" t="s">
+        <v>3893</v>
+      </c>
+      <c r="F192" s="16" t="s">
+        <v>3894</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="16">
+        <v>156</v>
+      </c>
+      <c r="B193" s="16">
+        <v>62</v>
+      </c>
+      <c r="C193" s="16" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D193" s="16" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E193" s="16" t="s">
+        <v>3896</v>
+      </c>
+      <c r="F193" s="16" t="s">
+        <v>3897</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="16">
+        <v>156</v>
+      </c>
+      <c r="B194" s="16">
+        <v>63</v>
+      </c>
+      <c r="C194" s="16" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D194" s="16" t="s">
+        <v>3898</v>
+      </c>
+      <c r="E194" s="16" t="s">
+        <v>3899</v>
+      </c>
+      <c r="F194" s="16" t="s">
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="16">
+        <v>156</v>
+      </c>
+      <c r="B195" s="16">
+        <v>64</v>
+      </c>
+      <c r="C195" s="16" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D195" s="16" t="s">
+        <v>3901</v>
+      </c>
+      <c r="E195" s="16" t="s">
+        <v>3902</v>
+      </c>
+      <c r="F195" s="16" t="s">
+        <v>3903</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="16">
+        <v>156</v>
+      </c>
+      <c r="B196" s="16">
+        <v>65</v>
+      </c>
+      <c r="C196" s="16" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D196" s="16" t="s">
+        <v>3904</v>
+      </c>
+      <c r="E196" s="16" t="s">
+        <v>3905</v>
+      </c>
+      <c r="F196" s="16" t="s">
+        <v>3906</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="16">
+        <v>156</v>
+      </c>
+      <c r="B197" s="16">
+        <v>66</v>
+      </c>
+      <c r="C197" s="16" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D197" s="16" t="s">
+        <v>3907</v>
+      </c>
+      <c r="E197" s="16" t="s">
+        <v>3908</v>
+      </c>
+      <c r="F197" s="16" t="s">
+        <v>3909</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="16">
+        <v>156</v>
+      </c>
+      <c r="B198" s="16">
+        <v>67</v>
+      </c>
+      <c r="C198" s="16" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D198" s="16" t="s">
+        <v>3910</v>
+      </c>
+      <c r="E198" s="16" t="s">
+        <v>3911</v>
+      </c>
+      <c r="F198" s="16" t="s">
+        <v>3912</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="16">
+        <v>156</v>
+      </c>
+      <c r="B199" s="16">
+        <v>68</v>
+      </c>
+      <c r="C199" s="16" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D199" s="16" t="s">
+        <v>3913</v>
+      </c>
+      <c r="E199" s="16" t="s">
+        <v>3914</v>
+      </c>
+      <c r="F199" s="16" t="s">
+        <v>3915</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="16">
+        <v>156</v>
+      </c>
+      <c r="B200" s="16">
+        <v>69</v>
+      </c>
+      <c r="C200" s="16" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D200" s="16" t="s">
+        <v>3916</v>
+      </c>
+      <c r="E200" s="16" t="s">
+        <v>3917</v>
+      </c>
+      <c r="F200" s="16" t="s">
+        <v>3918</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" s="16">
+        <v>156</v>
+      </c>
+      <c r="B201" s="16">
+        <v>70</v>
+      </c>
+      <c r="C201" s="16" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D201" s="16" t="s">
+        <v>3919</v>
+      </c>
+      <c r="E201" s="16" t="s">
+        <v>3920</v>
+      </c>
+      <c r="F201" s="16" t="s">
+        <v>3921</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" s="16">
+        <v>156</v>
+      </c>
+      <c r="B202" s="16">
+        <v>71</v>
+      </c>
+      <c r="C202" s="16" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D202" s="16" t="s">
+        <v>3733</v>
+      </c>
+      <c r="E202" s="16" t="s">
+        <v>3734</v>
+      </c>
+      <c r="F202" s="16" t="s">
+        <v>3922</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" s="16">
+        <v>156</v>
+      </c>
+      <c r="B203" s="16">
+        <v>72</v>
+      </c>
+      <c r="C203" s="16" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D203" s="16" t="s">
+        <v>3735</v>
+      </c>
+      <c r="E203" s="16" t="s">
+        <v>3736</v>
+      </c>
+      <c r="F203" s="16" t="s">
+        <v>3923</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="16">
+        <v>156</v>
+      </c>
+      <c r="B204" s="16">
+        <v>73</v>
+      </c>
+      <c r="C204" s="16" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D204" s="16" t="s">
+        <v>3737</v>
+      </c>
+      <c r="E204" s="16" t="s">
+        <v>3738</v>
+      </c>
+      <c r="F204" s="16" t="s">
+        <v>3924</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" s="16">
+        <v>156</v>
+      </c>
+      <c r="B205" s="16">
+        <v>74</v>
+      </c>
+      <c r="C205" s="16" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D205" s="16" t="s">
+        <v>3728</v>
+      </c>
+      <c r="E205" s="16" t="s">
+        <v>3729</v>
+      </c>
+      <c r="F205" s="16" t="s">
+        <v>3925</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" s="16">
+        <v>156</v>
+      </c>
+      <c r="B206" s="16">
+        <v>75</v>
+      </c>
+      <c r="C206" s="16" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D206" s="16" t="s">
+        <v>3740</v>
+      </c>
+      <c r="E206" s="16" t="s">
+        <v>3741</v>
+      </c>
+      <c r="F206" s="16" t="s">
+        <v>3926</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" s="16">
+        <v>156</v>
+      </c>
+      <c r="B207" s="16">
+        <v>76</v>
+      </c>
+      <c r="C207" s="16" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D207" s="16" t="s">
+        <v>3724</v>
+      </c>
+      <c r="E207" s="16" t="s">
+        <v>3725</v>
+      </c>
+      <c r="F207" s="16" t="s">
+        <v>3927</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="16">
+        <v>156</v>
+      </c>
+      <c r="B208" s="16">
+        <v>77</v>
+      </c>
+      <c r="C208" s="16" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D208" s="16" t="s">
+        <v>3745</v>
+      </c>
+      <c r="E208" s="16" t="s">
+        <v>3746</v>
+      </c>
+      <c r="F208" s="16" t="s">
+        <v>3928</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" s="16">
+        <v>156</v>
+      </c>
+      <c r="B209" s="16">
+        <v>78</v>
+      </c>
+      <c r="C209" s="16" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D209" s="16" t="s">
+        <v>3748</v>
+      </c>
+      <c r="E209" s="16" t="s">
+        <v>3749</v>
+      </c>
+      <c r="F209" s="16" t="s">
+        <v>3929</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="16">
+        <v>156</v>
+      </c>
+      <c r="B210" s="16">
+        <v>79</v>
+      </c>
+      <c r="C210" s="16" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D210" s="16" t="s">
+        <v>3751</v>
+      </c>
+      <c r="E210" s="16" t="s">
+        <v>3752</v>
+      </c>
+      <c r="F210" s="16" t="s">
+        <v>3930</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" s="16">
+        <v>156</v>
+      </c>
+      <c r="B211" s="16">
+        <v>80</v>
+      </c>
+      <c r="C211" s="16" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D211" s="16" t="s">
+        <v>3754</v>
+      </c>
+      <c r="E211" s="16" t="s">
+        <v>3755</v>
+      </c>
+      <c r="F211" s="16" t="s">
+        <v>3931</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" s="16">
+        <v>156</v>
+      </c>
+      <c r="B212" s="16">
+        <v>81</v>
+      </c>
+      <c r="C212" s="16" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D212" s="16" t="s">
+        <v>3779</v>
+      </c>
+      <c r="E212" s="16" t="s">
+        <v>3780</v>
+      </c>
+      <c r="F212" s="16" t="s">
+        <v>3932</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" s="16">
+        <v>156</v>
+      </c>
+      <c r="B213" s="16">
+        <v>82</v>
+      </c>
+      <c r="C213" s="16" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D213" s="16" t="s">
+        <v>3730</v>
+      </c>
+      <c r="E213" s="16" t="s">
+        <v>3731</v>
+      </c>
+      <c r="F213" s="16" t="s">
+        <v>3933</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" s="16">
+        <v>156</v>
+      </c>
+      <c r="B214" s="16">
+        <v>83</v>
+      </c>
+      <c r="C214" s="16" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D214" s="16" t="s">
+        <v>3756</v>
+      </c>
+      <c r="E214" s="16" t="s">
+        <v>3757</v>
+      </c>
+      <c r="F214" s="16" t="s">
+        <v>3934</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" s="16">
+        <v>156</v>
+      </c>
+      <c r="B215" s="16">
+        <v>84</v>
+      </c>
+      <c r="C215" s="16" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D215" s="16" t="s">
+        <v>3758</v>
+      </c>
+      <c r="E215" s="16" t="s">
+        <v>3759</v>
+      </c>
+      <c r="F215" s="16" t="s">
+        <v>3935</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216" s="16">
+        <v>156</v>
+      </c>
+      <c r="B216" s="16">
+        <v>85</v>
+      </c>
+      <c r="C216" s="16" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D216" s="16" t="s">
+        <v>3785</v>
+      </c>
+      <c r="E216" s="16" t="s">
+        <v>3786</v>
+      </c>
+      <c r="F216" s="16" t="s">
+        <v>3936</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217" s="16">
+        <v>156</v>
+      </c>
+      <c r="B217" s="16">
+        <v>86</v>
+      </c>
+      <c r="C217" s="16" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D217" s="16" t="s">
+        <v>3760</v>
+      </c>
+      <c r="E217" s="16" t="s">
+        <v>3761</v>
+      </c>
+      <c r="F217" s="16" t="s">
+        <v>3937</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218" s="16">
+        <v>156</v>
+      </c>
+      <c r="B218" s="16">
+        <v>87</v>
+      </c>
+      <c r="C218" s="16" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D218" s="16" t="s">
+        <v>3789</v>
+      </c>
+      <c r="E218" s="16" t="s">
+        <v>3790</v>
+      </c>
+      <c r="F218" s="16" t="s">
+        <v>3938</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219" s="16">
+        <v>156</v>
+      </c>
+      <c r="B219" s="16">
+        <v>88</v>
+      </c>
+      <c r="C219" s="16" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D219" s="16" t="s">
+        <v>3792</v>
+      </c>
+      <c r="E219" s="16" t="s">
+        <v>3793</v>
+      </c>
+      <c r="F219" s="16" t="s">
+        <v>3939</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" s="16">
+        <v>156</v>
+      </c>
+      <c r="B220" s="16">
+        <v>89</v>
+      </c>
+      <c r="C220" s="16" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D220" s="16" t="s">
+        <v>3795</v>
+      </c>
+      <c r="E220" s="16" t="s">
+        <v>3796</v>
+      </c>
+      <c r="F220" s="16" t="s">
+        <v>3940</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" s="16">
+        <v>156</v>
+      </c>
+      <c r="B221" s="16">
+        <v>90</v>
+      </c>
+      <c r="C221" s="16" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D221" s="16" t="s">
+        <v>3798</v>
+      </c>
+      <c r="E221" s="16" t="s">
+        <v>3799</v>
+      </c>
+      <c r="F221" s="16" t="s">
+        <v>3941</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" s="16">
+        <v>156</v>
+      </c>
+      <c r="B222" s="16">
+        <v>91</v>
+      </c>
+      <c r="C222" s="16" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D222" s="16" t="s">
+        <v>3801</v>
+      </c>
+      <c r="E222" s="16" t="s">
+        <v>3802</v>
+      </c>
+      <c r="F222" s="16" t="s">
+        <v>3942</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223" s="16">
+        <v>156</v>
+      </c>
+      <c r="B223" s="16">
+        <v>92</v>
+      </c>
+      <c r="C223" s="16" t="s">
+        <v>3804</v>
+      </c>
+      <c r="D223" s="16" t="s">
+        <v>3943</v>
+      </c>
+      <c r="E223" s="16" t="s">
+        <v>3944</v>
+      </c>
+      <c r="F223" s="16" t="s">
+        <v>3945</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224" s="16">
+        <v>156</v>
+      </c>
+      <c r="B224" s="16">
+        <v>93</v>
+      </c>
+      <c r="C224" s="16" t="s">
+        <v>3946</v>
+      </c>
+      <c r="D224" s="16" t="s">
+        <v>3947</v>
+      </c>
+      <c r="E224" s="16" t="s">
+        <v>3948</v>
+      </c>
+      <c r="F224" s="16" t="s">
+        <v>3949</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225" s="16">
+        <v>156</v>
+      </c>
+      <c r="B225" s="16">
+        <v>94</v>
+      </c>
+      <c r="C225" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D225" s="16" t="s">
+        <v>3951</v>
+      </c>
+      <c r="E225" s="16" t="s">
+        <v>3952</v>
+      </c>
+      <c r="F225" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226" s="16">
+        <v>156</v>
+      </c>
+      <c r="B226" s="16">
+        <v>95</v>
+      </c>
+      <c r="C226" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D226" s="16" t="s">
+        <v>3823</v>
+      </c>
+      <c r="E226" s="16" t="s">
+        <v>3824</v>
+      </c>
+      <c r="F226" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227" s="16">
+        <v>156</v>
+      </c>
+      <c r="B227" s="16">
+        <v>96</v>
+      </c>
+      <c r="C227" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D227" s="16" t="s">
+        <v>3826</v>
+      </c>
+      <c r="E227" s="16" t="s">
+        <v>3827</v>
+      </c>
+      <c r="F227" s="16" t="s">
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228" s="16">
+        <v>156</v>
+      </c>
+      <c r="B228" s="16">
+        <v>97</v>
+      </c>
+      <c r="C228" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D228" s="16" t="s">
+        <v>3829</v>
+      </c>
+      <c r="E228" s="16" t="s">
+        <v>3830</v>
+      </c>
+      <c r="F228" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229" s="16">
+        <v>156</v>
+      </c>
+      <c r="B229" s="16">
+        <v>98</v>
+      </c>
+      <c r="C229" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D229" s="16" t="s">
+        <v>3832</v>
+      </c>
+      <c r="E229" s="16" t="s">
+        <v>3833</v>
+      </c>
+      <c r="F229" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230" s="16">
+        <v>156</v>
+      </c>
+      <c r="B230" s="16">
+        <v>99</v>
+      </c>
+      <c r="C230" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D230" s="16" t="s">
+        <v>3835</v>
+      </c>
+      <c r="E230" s="16" t="s">
+        <v>3836</v>
+      </c>
+      <c r="F230" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231" s="16">
+        <v>156</v>
+      </c>
+      <c r="B231" s="16">
+        <v>100</v>
+      </c>
+      <c r="C231" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D231" s="16" t="s">
+        <v>3841</v>
+      </c>
+      <c r="E231" s="16" t="s">
+        <v>3842</v>
+      </c>
+      <c r="F231" s="16" t="s">
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232" s="16">
+        <v>156</v>
+      </c>
+      <c r="B232" s="16">
+        <v>101</v>
+      </c>
+      <c r="C232" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D232" s="16" t="s">
+        <v>3844</v>
+      </c>
+      <c r="E232" s="16" t="s">
+        <v>3845</v>
+      </c>
+      <c r="F232" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233" s="16">
+        <v>156</v>
+      </c>
+      <c r="B233" s="16">
+        <v>102</v>
+      </c>
+      <c r="C233" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D233" s="16" t="s">
+        <v>3953</v>
+      </c>
+      <c r="E233" s="16" t="s">
+        <v>3954</v>
+      </c>
+      <c r="F233" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234" s="16">
+        <v>156</v>
+      </c>
+      <c r="B234" s="16">
+        <v>103</v>
+      </c>
+      <c r="C234" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D234" s="16" t="s">
+        <v>3847</v>
+      </c>
+      <c r="E234" s="16" t="s">
+        <v>3848</v>
+      </c>
+      <c r="F234" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235" s="16">
+        <v>156</v>
+      </c>
+      <c r="B235" s="16">
+        <v>104</v>
+      </c>
+      <c r="C235" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D235" s="16" t="s">
+        <v>3850</v>
+      </c>
+      <c r="E235" s="16" t="s">
+        <v>3851</v>
+      </c>
+      <c r="F235" s="16" t="s">
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236" s="16">
+        <v>156</v>
+      </c>
+      <c r="B236" s="16">
+        <v>105</v>
+      </c>
+      <c r="C236" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D236" s="16" t="s">
+        <v>3853</v>
+      </c>
+      <c r="E236" s="16" t="s">
+        <v>3854</v>
+      </c>
+      <c r="F236" s="16" t="s">
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237" s="16">
+        <v>156</v>
+      </c>
+      <c r="B237" s="16">
+        <v>106</v>
+      </c>
+      <c r="C237" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D237" s="16" t="s">
+        <v>3856</v>
+      </c>
+      <c r="E237" s="16" t="s">
+        <v>3857</v>
+      </c>
+      <c r="F237" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238" s="16">
+        <v>156</v>
+      </c>
+      <c r="B238" s="16">
+        <v>107</v>
+      </c>
+      <c r="C238" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D238" s="16" t="s">
+        <v>3955</v>
+      </c>
+      <c r="E238" s="16" t="s">
+        <v>3956</v>
+      </c>
+      <c r="F238" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239" s="16">
+        <v>156</v>
+      </c>
+      <c r="B239" s="16">
+        <v>108</v>
+      </c>
+      <c r="C239" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D239" s="16" t="s">
+        <v>3859</v>
+      </c>
+      <c r="E239" s="16" t="s">
+        <v>3860</v>
+      </c>
+      <c r="F239" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240" s="16">
+        <v>156</v>
+      </c>
+      <c r="B240" s="16">
+        <v>109</v>
+      </c>
+      <c r="C240" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D240" s="16" t="s">
+        <v>3862</v>
+      </c>
+      <c r="E240" s="16" t="s">
+        <v>3863</v>
+      </c>
+      <c r="F240" s="16" t="s">
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241" s="16">
+        <v>156</v>
+      </c>
+      <c r="B241" s="16">
+        <v>110</v>
+      </c>
+      <c r="C241" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D241" s="16" t="s">
+        <v>3868</v>
+      </c>
+      <c r="E241" s="16" t="s">
+        <v>3869</v>
+      </c>
+      <c r="F241" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242" s="16">
+        <v>156</v>
+      </c>
+      <c r="B242" s="16">
+        <v>111</v>
+      </c>
+      <c r="C242" s="16" t="s">
+        <v>3957</v>
+      </c>
+      <c r="D242" s="16" t="s">
+        <v>3958</v>
+      </c>
+      <c r="E242" s="16" t="s">
+        <v>3948</v>
+      </c>
+      <c r="F242" s="16" t="s">
+        <v>3959</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243" s="16">
+        <v>156</v>
+      </c>
+      <c r="B243" s="16">
+        <v>112</v>
+      </c>
+      <c r="C243" s="16" t="s">
+        <v>3960</v>
+      </c>
+      <c r="D243" s="16" t="s">
+        <v>3961</v>
+      </c>
+      <c r="E243" s="16" t="s">
+        <v>3961</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244" s="16">
+        <v>156</v>
+      </c>
+      <c r="B244" s="16">
+        <v>113</v>
+      </c>
+      <c r="C244" s="16" t="s">
+        <v>3962</v>
+      </c>
+      <c r="D244" s="16" t="s">
+        <v>3963</v>
+      </c>
+      <c r="E244" s="16" t="s">
+        <v>3963</v>
+      </c>
+      <c r="F244" s="16" t="s">
+        <v>3964</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245" s="16">
+        <v>156</v>
+      </c>
+      <c r="B245" s="16">
+        <v>114</v>
+      </c>
+      <c r="C245" s="16" t="s">
+        <v>3965</v>
+      </c>
+      <c r="D245" s="16" t="s">
+        <v>3963</v>
+      </c>
+      <c r="E245" s="16" t="s">
+        <v>3963</v>
+      </c>
+      <c r="F245" s="16" t="s">
+        <v>3966</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246" s="16">
+        <v>164</v>
+      </c>
+      <c r="B246" s="16">
+        <v>1</v>
+      </c>
+      <c r="C246" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D246" s="16" t="s">
+        <v>3871</v>
+      </c>
+      <c r="E246" s="16" t="s">
+        <v>3872</v>
+      </c>
+      <c r="F246" s="16" t="s">
+        <v>3742</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247" s="16">
+        <v>164</v>
+      </c>
+      <c r="B247" s="16">
+        <v>2</v>
+      </c>
+      <c r="C247" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D247" s="16" t="s">
+        <v>3874</v>
+      </c>
+      <c r="E247" s="16" t="s">
+        <v>3875</v>
+      </c>
+      <c r="F247" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248" s="16">
+        <v>164</v>
+      </c>
+      <c r="B248" s="16">
+        <v>3</v>
+      </c>
+      <c r="C248" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D248" s="16" t="s">
+        <v>3967</v>
+      </c>
+      <c r="E248" s="16" t="s">
+        <v>3968</v>
+      </c>
+      <c r="F248" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249" s="16">
+        <v>164</v>
+      </c>
+      <c r="B249" s="16">
+        <v>4</v>
+      </c>
+      <c r="C249" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D249" s="16" t="s">
+        <v>3877</v>
+      </c>
+      <c r="E249" s="16" t="s">
+        <v>3878</v>
+      </c>
+      <c r="F249" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250" s="16">
+        <v>164</v>
+      </c>
+      <c r="B250" s="16">
+        <v>5</v>
+      </c>
+      <c r="C250" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D250" s="16" t="s">
+        <v>3880</v>
+      </c>
+      <c r="E250" s="16" t="s">
+        <v>3881</v>
+      </c>
+      <c r="F250" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251" s="16">
+        <v>164</v>
+      </c>
+      <c r="B251" s="16">
+        <v>6</v>
+      </c>
+      <c r="C251" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D251" s="16" t="s">
+        <v>3969</v>
+      </c>
+      <c r="E251" s="16" t="s">
+        <v>3970</v>
+      </c>
+      <c r="F251" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252" s="16">
+        <v>164</v>
+      </c>
+      <c r="B252" s="16">
+        <v>7</v>
+      </c>
+      <c r="C252" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D252" s="16" t="s">
+        <v>3883</v>
+      </c>
+      <c r="E252" s="16" t="s">
+        <v>3884</v>
+      </c>
+      <c r="F252" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253" s="16">
+        <v>164</v>
+      </c>
+      <c r="B253" s="16">
+        <v>8</v>
+      </c>
+      <c r="C253" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D253" s="16" t="s">
+        <v>3886</v>
+      </c>
+      <c r="E253" s="16" t="s">
+        <v>3887</v>
+      </c>
+      <c r="F253" s="16" t="s">
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254" s="16">
+        <v>164</v>
+      </c>
+      <c r="B254" s="16">
+        <v>9</v>
+      </c>
+      <c r="C254" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D254" s="16" t="s">
+        <v>3971</v>
+      </c>
+      <c r="E254" s="16" t="s">
+        <v>3972</v>
+      </c>
+      <c r="F254" s="16" t="s">
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255" s="16">
+        <v>164</v>
+      </c>
+      <c r="B255" s="16">
+        <v>10</v>
+      </c>
+      <c r="C255" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D255" s="16" t="s">
+        <v>3973</v>
+      </c>
+      <c r="E255" s="16" t="s">
+        <v>3974</v>
+      </c>
+      <c r="F255" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256" s="16">
+        <v>164</v>
+      </c>
+      <c r="B256" s="16">
+        <v>11</v>
+      </c>
+      <c r="C256" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D256" s="16" t="s">
+        <v>3975</v>
+      </c>
+      <c r="E256" s="16" t="s">
+        <v>3976</v>
+      </c>
+      <c r="F256" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257" s="16">
+        <v>164</v>
+      </c>
+      <c r="B257" s="16">
+        <v>12</v>
+      </c>
+      <c r="C257" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D257" s="16" t="s">
+        <v>3977</v>
+      </c>
+      <c r="E257" s="16" t="s">
+        <v>3978</v>
+      </c>
+      <c r="F257" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258" s="16">
+        <v>164</v>
+      </c>
+      <c r="B258" s="16">
+        <v>13</v>
+      </c>
+      <c r="C258" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D258" s="16" t="s">
+        <v>3979</v>
+      </c>
+      <c r="E258" s="16" t="s">
+        <v>3980</v>
+      </c>
+      <c r="F258" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259" s="16">
+        <v>164</v>
+      </c>
+      <c r="B259" s="16">
+        <v>14</v>
+      </c>
+      <c r="C259" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D259" s="16" t="s">
+        <v>3981</v>
+      </c>
+      <c r="E259" s="16" t="s">
+        <v>3982</v>
+      </c>
+      <c r="F259" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260" s="16">
+        <v>164</v>
+      </c>
+      <c r="B260" s="16">
+        <v>15</v>
+      </c>
+      <c r="C260" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D260" s="16" t="s">
+        <v>3889</v>
+      </c>
+      <c r="E260" s="16" t="s">
+        <v>3890</v>
+      </c>
+      <c r="F260" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261" s="16">
+        <v>164</v>
+      </c>
+      <c r="B261" s="16">
+        <v>16</v>
+      </c>
+      <c r="C261" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D261" s="16" t="s">
+        <v>3892</v>
+      </c>
+      <c r="E261" s="16" t="s">
+        <v>3893</v>
+      </c>
+      <c r="F261" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262" s="16">
+        <v>164</v>
+      </c>
+      <c r="B262" s="16">
+        <v>17</v>
+      </c>
+      <c r="C262" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D262" s="16" t="s">
+        <v>3983</v>
+      </c>
+      <c r="E262" s="16" t="s">
+        <v>3984</v>
+      </c>
+      <c r="F262" s="16" t="s">
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263" s="16">
+        <v>164</v>
+      </c>
+      <c r="B263" s="16">
+        <v>18</v>
+      </c>
+      <c r="C263" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D263" s="16" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E263" s="16" t="s">
+        <v>3896</v>
+      </c>
+      <c r="F263" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264" s="16">
+        <v>164</v>
+      </c>
+      <c r="B264" s="16">
+        <v>19</v>
+      </c>
+      <c r="C264" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D264" s="16" t="s">
+        <v>3898</v>
+      </c>
+      <c r="E264" s="16" t="s">
+        <v>3899</v>
+      </c>
+      <c r="F264" s="16" t="s">
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265" s="16">
+        <v>164</v>
+      </c>
+      <c r="B265" s="16">
+        <v>20</v>
+      </c>
+      <c r="C265" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D265" s="16" t="s">
+        <v>3904</v>
+      </c>
+      <c r="E265" s="16" t="s">
+        <v>3905</v>
+      </c>
+      <c r="F265" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266" s="16">
+        <v>164</v>
+      </c>
+      <c r="B266" s="16">
+        <v>21</v>
+      </c>
+      <c r="C266" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D266" s="16" t="s">
+        <v>3907</v>
+      </c>
+      <c r="E266" s="16" t="s">
+        <v>3908</v>
+      </c>
+      <c r="F266" s="16" t="s">
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267" s="16">
+        <v>164</v>
+      </c>
+      <c r="B267" s="16">
+        <v>22</v>
+      </c>
+      <c r="C267" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D267" s="16" t="s">
+        <v>3910</v>
+      </c>
+      <c r="E267" s="16" t="s">
+        <v>3911</v>
+      </c>
+      <c r="F267" s="16" t="s">
+        <v>3985</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268" s="16">
+        <v>164</v>
+      </c>
+      <c r="B268" s="16">
+        <v>23</v>
+      </c>
+      <c r="C268" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D268" s="16" t="s">
+        <v>3986</v>
+      </c>
+      <c r="E268" s="16" t="s">
+        <v>3987</v>
+      </c>
+      <c r="F268" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269" s="16">
+        <v>164</v>
+      </c>
+      <c r="B269" s="16">
+        <v>24</v>
+      </c>
+      <c r="C269" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D269" s="16" t="s">
+        <v>3988</v>
+      </c>
+      <c r="E269" s="16" t="s">
+        <v>3989</v>
+      </c>
+      <c r="F269" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270" s="16">
+        <v>164</v>
+      </c>
+      <c r="B270" s="16">
+        <v>25</v>
+      </c>
+      <c r="C270" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D270" s="16" t="s">
+        <v>3990</v>
+      </c>
+      <c r="E270" s="16" t="s">
+        <v>3991</v>
+      </c>
+      <c r="F270" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271" s="16">
+        <v>164</v>
+      </c>
+      <c r="B271" s="16">
+        <v>26</v>
+      </c>
+      <c r="C271" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D271" s="16" t="s">
+        <v>3992</v>
+      </c>
+      <c r="E271" s="16" t="s">
+        <v>3993</v>
+      </c>
+      <c r="F271" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272" s="16">
+        <v>164</v>
+      </c>
+      <c r="B272" s="16">
+        <v>27</v>
+      </c>
+      <c r="C272" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D272" s="16" t="s">
+        <v>3994</v>
+      </c>
+      <c r="E272" s="16" t="s">
+        <v>3995</v>
+      </c>
+      <c r="F272" s="16" t="s">
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273" s="16">
+        <v>164</v>
+      </c>
+      <c r="B273" s="16">
+        <v>28</v>
+      </c>
+      <c r="C273" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D273" s="16" t="s">
+        <v>3996</v>
+      </c>
+      <c r="E273" s="16" t="s">
+        <v>3997</v>
+      </c>
+      <c r="F273" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A274" s="16">
+        <v>164</v>
+      </c>
+      <c r="B274" s="16">
+        <v>29</v>
+      </c>
+      <c r="C274" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D274" s="16" t="s">
+        <v>3998</v>
+      </c>
+      <c r="E274" s="16" t="s">
+        <v>3999</v>
+      </c>
+      <c r="F274" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A275" s="16">
+        <v>164</v>
+      </c>
+      <c r="B275" s="16">
+        <v>30</v>
+      </c>
+      <c r="C275" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D275" s="16" t="s">
+        <v>4000</v>
+      </c>
+      <c r="E275" s="16" t="s">
+        <v>4001</v>
+      </c>
+      <c r="F275" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A276" s="16">
+        <v>164</v>
+      </c>
+      <c r="B276" s="16">
+        <v>31</v>
+      </c>
+      <c r="C276" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D276" s="16" t="s">
+        <v>4002</v>
+      </c>
+      <c r="E276" s="16" t="s">
+        <v>4003</v>
+      </c>
+      <c r="F276" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A277" s="16">
+        <v>164</v>
+      </c>
+      <c r="B277" s="16">
+        <v>32</v>
+      </c>
+      <c r="C277" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D277" s="16" t="s">
+        <v>4004</v>
+      </c>
+      <c r="E277" s="16" t="s">
+        <v>4005</v>
+      </c>
+      <c r="F277" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A278" s="16">
+        <v>164</v>
+      </c>
+      <c r="B278" s="16">
+        <v>33</v>
+      </c>
+      <c r="C278" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D278" s="16" t="s">
+        <v>4006</v>
+      </c>
+      <c r="E278" s="16" t="s">
+        <v>4007</v>
+      </c>
+      <c r="F278" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A279" s="16">
+        <v>164</v>
+      </c>
+      <c r="B279" s="16">
+        <v>34</v>
+      </c>
+      <c r="C279" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D279" s="16" t="s">
+        <v>4008</v>
+      </c>
+      <c r="E279" s="16" t="s">
+        <v>4009</v>
+      </c>
+      <c r="F279" s="16" t="s">
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A280" s="16">
+        <v>164</v>
+      </c>
+      <c r="B280" s="16">
+        <v>35</v>
+      </c>
+      <c r="C280" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D280" s="16" t="s">
+        <v>4010</v>
+      </c>
+      <c r="E280" s="16" t="s">
+        <v>4011</v>
+      </c>
+      <c r="F280" s="16" t="s">
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A281" s="16">
+        <v>164</v>
+      </c>
+      <c r="B281" s="16">
+        <v>36</v>
+      </c>
+      <c r="C281" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D281" s="16" t="s">
+        <v>4012</v>
+      </c>
+      <c r="E281" s="16" t="s">
+        <v>4013</v>
+      </c>
+      <c r="F281" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A282" s="16">
+        <v>164</v>
+      </c>
+      <c r="B282" s="16">
+        <v>37</v>
+      </c>
+      <c r="C282" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D282" s="16" t="s">
+        <v>4014</v>
+      </c>
+      <c r="E282" s="16" t="s">
+        <v>4015</v>
+      </c>
+      <c r="F282" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A283" s="16">
+        <v>164</v>
+      </c>
+      <c r="B283" s="16">
+        <v>38</v>
+      </c>
+      <c r="C283" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D283" s="16" t="s">
+        <v>4016</v>
+      </c>
+      <c r="E283" s="16" t="s">
+        <v>4017</v>
+      </c>
+      <c r="F283" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A284" s="16">
+        <v>164</v>
+      </c>
+      <c r="B284" s="16">
+        <v>39</v>
+      </c>
+      <c r="C284" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D284" s="16" t="s">
+        <v>4018</v>
+      </c>
+      <c r="E284" s="16" t="s">
+        <v>4019</v>
+      </c>
+      <c r="F284" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A285" s="16">
+        <v>164</v>
+      </c>
+      <c r="B285" s="16">
+        <v>40</v>
+      </c>
+      <c r="C285" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D285" s="16" t="s">
+        <v>4020</v>
+      </c>
+      <c r="E285" s="16" t="s">
+        <v>4021</v>
+      </c>
+      <c r="F285" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A286" s="16">
+        <v>164</v>
+      </c>
+      <c r="B286" s="16">
+        <v>41</v>
+      </c>
+      <c r="C286" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D286" s="16" t="s">
+        <v>4022</v>
+      </c>
+      <c r="E286" s="16" t="s">
+        <v>4023</v>
+      </c>
+      <c r="F286" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A287" s="16">
+        <v>164</v>
+      </c>
+      <c r="B287" s="16">
+        <v>42</v>
+      </c>
+      <c r="C287" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D287" s="16" t="s">
+        <v>4024</v>
+      </c>
+      <c r="E287" s="16" t="s">
+        <v>4025</v>
+      </c>
+      <c r="F287" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A288" s="16">
+        <v>164</v>
+      </c>
+      <c r="B288" s="16">
+        <v>43</v>
+      </c>
+      <c r="C288" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D288" s="16" t="s">
+        <v>4026</v>
+      </c>
+      <c r="E288" s="16" t="s">
+        <v>4027</v>
+      </c>
+      <c r="F288" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A289" s="16">
+        <v>164</v>
+      </c>
+      <c r="B289" s="16">
+        <v>44</v>
+      </c>
+      <c r="C289" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D289" s="16" t="s">
+        <v>4028</v>
+      </c>
+      <c r="E289" s="16" t="s">
+        <v>4029</v>
+      </c>
+      <c r="F289" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A290" s="16">
+        <v>164</v>
+      </c>
+      <c r="B290" s="16">
+        <v>45</v>
+      </c>
+      <c r="C290" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D290" s="16" t="s">
+        <v>4030</v>
+      </c>
+      <c r="E290" s="16" t="s">
+        <v>4031</v>
+      </c>
+      <c r="F290" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A291" s="16">
+        <v>164</v>
+      </c>
+      <c r="B291" s="16">
+        <v>46</v>
+      </c>
+      <c r="C291" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D291" s="16" t="s">
+        <v>3766</v>
+      </c>
+      <c r="E291" s="16" t="s">
+        <v>3767</v>
+      </c>
+      <c r="F291" s="16" t="s">
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A292" s="16">
+        <v>164</v>
+      </c>
+      <c r="B292" s="16">
+        <v>47</v>
+      </c>
+      <c r="C292" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D292" s="16" t="s">
+        <v>3733</v>
+      </c>
+      <c r="E292" s="16" t="s">
+        <v>3734</v>
+      </c>
+      <c r="F292" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A293" s="16">
+        <v>164</v>
+      </c>
+      <c r="B293" s="16">
+        <v>48</v>
+      </c>
+      <c r="C293" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D293" s="16" t="s">
+        <v>3737</v>
+      </c>
+      <c r="E293" s="16" t="s">
+        <v>3738</v>
+      </c>
+      <c r="F293" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A294" s="16">
+        <v>164</v>
+      </c>
+      <c r="B294" s="16">
+        <v>49</v>
+      </c>
+      <c r="C294" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D294" s="16" t="s">
+        <v>3720</v>
+      </c>
+      <c r="E294" s="16" t="s">
+        <v>3721</v>
+      </c>
+      <c r="F294" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A295" s="16">
+        <v>164</v>
+      </c>
+      <c r="B295" s="16">
+        <v>50</v>
+      </c>
+      <c r="C295" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D295" s="16" t="s">
+        <v>3740</v>
+      </c>
+      <c r="E295" s="16" t="s">
+        <v>3741</v>
+      </c>
+      <c r="F295" s="16" t="s">
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A296" s="16">
+        <v>164</v>
+      </c>
+      <c r="B296" s="16">
+        <v>51</v>
+      </c>
+      <c r="C296" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D296" s="16" t="s">
+        <v>3748</v>
+      </c>
+      <c r="E296" s="16" t="s">
+        <v>3749</v>
+      </c>
+      <c r="F296" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A297" s="16">
+        <v>164</v>
+      </c>
+      <c r="B297" s="16">
+        <v>52</v>
+      </c>
+      <c r="C297" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D297" s="16" t="s">
+        <v>3751</v>
+      </c>
+      <c r="E297" s="16" t="s">
+        <v>3752</v>
+      </c>
+      <c r="F297" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A298" s="16">
+        <v>164</v>
+      </c>
+      <c r="B298" s="16">
+        <v>53</v>
+      </c>
+      <c r="C298" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D298" s="16" t="s">
+        <v>3754</v>
+      </c>
+      <c r="E298" s="16" t="s">
+        <v>3755</v>
+      </c>
+      <c r="F298" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A299" s="16">
+        <v>164</v>
+      </c>
+      <c r="B299" s="16">
+        <v>54</v>
+      </c>
+      <c r="C299" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D299" s="16" t="s">
+        <v>3779</v>
+      </c>
+      <c r="E299" s="16" t="s">
+        <v>3780</v>
+      </c>
+      <c r="F299" s="16" t="s">
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A300" s="16">
+        <v>164</v>
+      </c>
+      <c r="B300" s="16">
+        <v>55</v>
+      </c>
+      <c r="C300" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D300" s="16" t="s">
+        <v>3730</v>
+      </c>
+      <c r="E300" s="16" t="s">
+        <v>3731</v>
+      </c>
+      <c r="F300" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A301" s="16">
+        <v>164</v>
+      </c>
+      <c r="B301" s="16">
+        <v>56</v>
+      </c>
+      <c r="C301" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D301" s="16" t="s">
+        <v>3756</v>
+      </c>
+      <c r="E301" s="16" t="s">
+        <v>3757</v>
+      </c>
+      <c r="F301" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A302" s="16">
+        <v>164</v>
+      </c>
+      <c r="B302" s="16">
+        <v>57</v>
+      </c>
+      <c r="C302" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D302" s="16" t="s">
+        <v>3758</v>
+      </c>
+      <c r="E302" s="16" t="s">
+        <v>3759</v>
+      </c>
+      <c r="F302" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A303" s="16">
+        <v>164</v>
+      </c>
+      <c r="B303" s="16">
+        <v>58</v>
+      </c>
+      <c r="C303" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D303" s="16" t="s">
+        <v>3785</v>
+      </c>
+      <c r="E303" s="16" t="s">
+        <v>3786</v>
+      </c>
+      <c r="F303" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A304" s="16">
+        <v>164</v>
+      </c>
+      <c r="B304" s="16">
+        <v>59</v>
+      </c>
+      <c r="C304" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D304" s="16" t="s">
+        <v>4032</v>
+      </c>
+      <c r="E304" s="16" t="s">
+        <v>4033</v>
+      </c>
+      <c r="F304" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A305" s="16">
+        <v>164</v>
+      </c>
+      <c r="B305" s="16">
+        <v>60</v>
+      </c>
+      <c r="C305" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D305" s="16" t="s">
+        <v>3789</v>
+      </c>
+      <c r="E305" s="16" t="s">
+        <v>3790</v>
+      </c>
+      <c r="F305" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A306" s="16">
+        <v>164</v>
+      </c>
+      <c r="B306" s="16">
+        <v>61</v>
+      </c>
+      <c r="C306" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D306" s="16" t="s">
+        <v>3792</v>
+      </c>
+      <c r="E306" s="16" t="s">
+        <v>3793</v>
+      </c>
+      <c r="F306" s="16" t="s">
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A307" s="16">
+        <v>164</v>
+      </c>
+      <c r="B307" s="16">
+        <v>62</v>
+      </c>
+      <c r="C307" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D307" s="16" t="s">
+        <v>3795</v>
+      </c>
+      <c r="E307" s="16" t="s">
+        <v>3796</v>
+      </c>
+      <c r="F307" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A308" s="16">
+        <v>164</v>
+      </c>
+      <c r="B308" s="16">
+        <v>63</v>
+      </c>
+      <c r="C308" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D308" s="16" t="s">
+        <v>3798</v>
+      </c>
+      <c r="E308" s="16" t="s">
+        <v>3799</v>
+      </c>
+      <c r="F308" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A309" s="16">
+        <v>164</v>
+      </c>
+      <c r="B309" s="16">
+        <v>64</v>
+      </c>
+      <c r="C309" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D309" s="16" t="s">
+        <v>3801</v>
+      </c>
+      <c r="E309" s="16" t="s">
+        <v>3802</v>
+      </c>
+      <c r="F309" s="16" t="s">
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A310" s="16">
+        <v>164</v>
+      </c>
+      <c r="B310" s="16">
+        <v>65</v>
+      </c>
+      <c r="C310" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D310" s="16" t="s">
+        <v>3943</v>
+      </c>
+      <c r="E310" s="16" t="s">
+        <v>3944</v>
+      </c>
+      <c r="F310" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A311" s="16">
+        <v>164</v>
+      </c>
+      <c r="B311" s="16">
+        <v>66</v>
+      </c>
+      <c r="C311" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D311" s="16" t="s">
+        <v>4034</v>
+      </c>
+      <c r="E311" s="16" t="s">
+        <v>4035</v>
+      </c>
+      <c r="F311" s="16" t="s">
+        <v>3739</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A312" s="16">
+        <v>164</v>
+      </c>
+      <c r="B312" s="16">
+        <v>67</v>
+      </c>
+      <c r="C312" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D312" s="16" t="s">
+        <v>4036</v>
+      </c>
+      <c r="E312" s="16" t="s">
+        <v>4037</v>
+      </c>
+      <c r="F312" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A313" s="16">
+        <v>164</v>
+      </c>
+      <c r="B313" s="16">
+        <v>68</v>
+      </c>
+      <c r="C313" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D313" s="16" t="s">
+        <v>4038</v>
+      </c>
+      <c r="E313" s="16" t="s">
+        <v>4039</v>
+      </c>
+      <c r="F313" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A314" s="16">
+        <v>164</v>
+      </c>
+      <c r="B314" s="16">
+        <v>69</v>
+      </c>
+      <c r="C314" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D314" s="16" t="s">
+        <v>4040</v>
+      </c>
+      <c r="E314" s="16" t="s">
+        <v>4041</v>
+      </c>
+      <c r="F314" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A315" s="16">
+        <v>164</v>
+      </c>
+      <c r="B315" s="16">
+        <v>70</v>
+      </c>
+      <c r="C315" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D315" s="16" t="s">
+        <v>4042</v>
+      </c>
+      <c r="E315" s="16" t="s">
+        <v>4043</v>
+      </c>
+      <c r="F315" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A316" s="16">
+        <v>164</v>
+      </c>
+      <c r="B316" s="16">
+        <v>71</v>
+      </c>
+      <c r="C316" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D316" s="16" t="s">
+        <v>4044</v>
+      </c>
+      <c r="E316" s="16" t="s">
+        <v>4045</v>
+      </c>
+      <c r="F316" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A317" s="16">
+        <v>164</v>
+      </c>
+      <c r="B317" s="16">
+        <v>72</v>
+      </c>
+      <c r="C317" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D317" s="16" t="s">
+        <v>4046</v>
+      </c>
+      <c r="E317" s="16" t="s">
+        <v>4047</v>
+      </c>
+      <c r="F317" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A318" s="16">
+        <v>164</v>
+      </c>
+      <c r="B318" s="16">
+        <v>73</v>
+      </c>
+      <c r="C318" s="16" t="s">
+        <v>3950</v>
+      </c>
+      <c r="D318" s="16" t="s">
+        <v>4048</v>
+      </c>
+      <c r="E318" s="16" t="s">
+        <v>4049</v>
+      </c>
+      <c r="F318" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A319" s="16">
+        <v>164</v>
+      </c>
+      <c r="B319" s="16">
+        <v>74</v>
+      </c>
+      <c r="C319" s="16" t="s">
+        <v>4050</v>
+      </c>
+      <c r="D319" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="E319" s="16" t="s">
+        <v>366</v>
+      </c>
+      <c r="F319" s="16" t="s">
+        <v>4051</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A320" s="16">
+        <v>164</v>
+      </c>
+      <c r="B320" s="16">
+        <v>75</v>
+      </c>
+      <c r="C320" s="16" t="s">
+        <v>4050</v>
+      </c>
+      <c r="D320" s="16" t="s">
+        <v>4052</v>
+      </c>
+      <c r="E320" s="16" t="s">
+        <v>4052</v>
+      </c>
+      <c r="F320" s="16" t="s">
+        <v>4053</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A321" s="16">
+        <v>164</v>
+      </c>
+      <c r="B321" s="16">
+        <v>76</v>
+      </c>
+      <c r="C321" s="16" t="s">
+        <v>4050</v>
+      </c>
+      <c r="D321" s="16" t="s">
+        <v>3898</v>
+      </c>
+      <c r="E321" s="16" t="s">
+        <v>3899</v>
+      </c>
+      <c r="F321" s="16" t="s">
+        <v>4054</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A322" s="16">
+        <v>164</v>
+      </c>
+      <c r="B322" s="16">
+        <v>77</v>
+      </c>
+      <c r="C322" s="16" t="s">
+        <v>3152</v>
+      </c>
+      <c r="D322" s="16" t="s">
+        <v>3859</v>
+      </c>
+      <c r="E322" s="16" t="s">
+        <v>3860</v>
+      </c>
+      <c r="F322" s="16" t="s">
+        <v>4055</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A323" s="16">
+        <v>164</v>
+      </c>
+      <c r="B323" s="16">
+        <v>78</v>
+      </c>
+      <c r="C323" s="16" t="s">
+        <v>3152</v>
+      </c>
+      <c r="D323" s="16" t="s">
+        <v>3862</v>
+      </c>
+      <c r="E323" s="16" t="s">
+        <v>3863</v>
+      </c>
+      <c r="F323" s="16" t="s">
+        <v>4056</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A324" s="16">
+        <v>164</v>
+      </c>
+      <c r="B324" s="16">
+        <v>79</v>
+      </c>
+      <c r="C324" s="16" t="s">
+        <v>3152</v>
+      </c>
+      <c r="D324" s="16" t="s">
+        <v>3865</v>
+      </c>
+      <c r="E324" s="16" t="s">
+        <v>3866</v>
+      </c>
+      <c r="F324" s="16" t="s">
+        <v>4057</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A325" s="16">
+        <v>164</v>
+      </c>
+      <c r="B325" s="16">
+        <v>80</v>
+      </c>
+      <c r="C325" s="16" t="s">
+        <v>3152</v>
+      </c>
+      <c r="D325" s="16" t="s">
+        <v>3868</v>
+      </c>
+      <c r="E325" s="16" t="s">
+        <v>3869</v>
+      </c>
+      <c r="F325" s="16" t="s">
+        <v>4058</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A326" s="16">
+        <v>164</v>
+      </c>
+      <c r="B326" s="16">
+        <v>81</v>
+      </c>
+      <c r="C326" s="16" t="s">
+        <v>3152</v>
+      </c>
+      <c r="D326" s="16" t="s">
+        <v>3871</v>
+      </c>
+      <c r="E326" s="16" t="s">
+        <v>3872</v>
+      </c>
+      <c r="F326" s="16" t="s">
+        <v>4059</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A327" s="16">
+        <v>164</v>
+      </c>
+      <c r="B327" s="16">
+        <v>82</v>
+      </c>
+      <c r="C327" s="16" t="s">
+        <v>3152</v>
+      </c>
+      <c r="D327" s="16" t="s">
+        <v>3874</v>
+      </c>
+      <c r="E327" s="16" t="s">
+        <v>3875</v>
+      </c>
+      <c r="F327" s="16" t="s">
+        <v>4060</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A328" s="16">
+        <v>164</v>
+      </c>
+      <c r="B328" s="16">
+        <v>83</v>
+      </c>
+      <c r="C328" s="16" t="s">
+        <v>3152</v>
+      </c>
+      <c r="D328" s="16" t="s">
+        <v>3877</v>
+      </c>
+      <c r="E328" s="16" t="s">
+        <v>3878</v>
+      </c>
+      <c r="F328" s="16" t="s">
+        <v>4061</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A329" s="16">
+        <v>164</v>
+      </c>
+      <c r="B329" s="16">
+        <v>84</v>
+      </c>
+      <c r="C329" s="16" t="s">
+        <v>3152</v>
+      </c>
+      <c r="D329" s="16" t="s">
+        <v>3969</v>
+      </c>
+      <c r="E329" s="16" t="s">
+        <v>3970</v>
+      </c>
+      <c r="F329" s="16" t="s">
+        <v>4062</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A330" s="16">
+        <v>164</v>
+      </c>
+      <c r="B330" s="16">
+        <v>85</v>
+      </c>
+      <c r="C330" s="16" t="s">
+        <v>3152</v>
+      </c>
+      <c r="D330" s="16" t="s">
+        <v>3886</v>
+      </c>
+      <c r="E330" s="16" t="s">
+        <v>3887</v>
+      </c>
+      <c r="F330" s="16" t="s">
+        <v>4063</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A331" s="16">
+        <v>164</v>
+      </c>
+      <c r="B331" s="16">
+        <v>86</v>
+      </c>
+      <c r="C331" s="16" t="s">
+        <v>3152</v>
+      </c>
+      <c r="D331" s="16" t="s">
+        <v>3971</v>
+      </c>
+      <c r="E331" s="16" t="s">
+        <v>3972</v>
+      </c>
+      <c r="F331" s="16" t="s">
+        <v>4064</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A332" s="16">
+        <v>164</v>
+      </c>
+      <c r="B332" s="16">
+        <v>87</v>
+      </c>
+      <c r="C332" s="16" t="s">
+        <v>3152</v>
+      </c>
+      <c r="D332" s="16" t="s">
+        <v>3977</v>
+      </c>
+      <c r="E332" s="16" t="s">
+        <v>3978</v>
+      </c>
+      <c r="F332" s="16" t="s">
+        <v>4065</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A333" s="16">
+        <v>164</v>
+      </c>
+      <c r="B333" s="16">
+        <v>88</v>
+      </c>
+      <c r="C333" s="16" t="s">
+        <v>3152</v>
+      </c>
+      <c r="D333" s="16" t="s">
+        <v>3979</v>
+      </c>
+      <c r="E333" s="16" t="s">
+        <v>3980</v>
+      </c>
+      <c r="F333" s="16" t="s">
+        <v>4066</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A334" s="16">
+        <v>164</v>
+      </c>
+      <c r="B334" s="16">
+        <v>89</v>
+      </c>
+      <c r="C334" s="16" t="s">
+        <v>3152</v>
+      </c>
+      <c r="D334" s="16" t="s">
+        <v>3981</v>
+      </c>
+      <c r="E334" s="16" t="s">
+        <v>3982</v>
+      </c>
+      <c r="F334" s="16" t="s">
+        <v>4067</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A335" s="16">
+        <v>164</v>
+      </c>
+      <c r="B335" s="16">
+        <v>90</v>
+      </c>
+      <c r="C335" s="16" t="s">
+        <v>3152</v>
+      </c>
+      <c r="D335" s="16" t="s">
+        <v>3889</v>
+      </c>
+      <c r="E335" s="16" t="s">
+        <v>3890</v>
+      </c>
+      <c r="F335" s="16" t="s">
+        <v>4068</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A336" s="16">
+        <v>164</v>
+      </c>
+      <c r="B336" s="16">
+        <v>91</v>
+      </c>
+      <c r="C336" s="16" t="s">
+        <v>3152</v>
+      </c>
+      <c r="D336" s="16" t="s">
+        <v>3892</v>
+      </c>
+      <c r="E336" s="16" t="s">
+        <v>3893</v>
+      </c>
+      <c r="F336" s="16" t="s">
+        <v>4069</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A337" s="16">
+        <v>164</v>
+      </c>
+      <c r="B337" s="16">
+        <v>92</v>
+      </c>
+      <c r="C337" s="16" t="s">
+        <v>3152</v>
+      </c>
+      <c r="D337" s="16" t="s">
+        <v>3895</v>
+      </c>
+      <c r="E337" s="16" t="s">
+        <v>3896</v>
+      </c>
+      <c r="F337" s="16" t="s">
+        <v>4070</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A338" s="16">
+        <v>164</v>
+      </c>
+      <c r="B338" s="16">
+        <v>93</v>
+      </c>
+      <c r="C338" s="16" t="s">
+        <v>3152</v>
+      </c>
+      <c r="D338" s="16" t="s">
+        <v>3898</v>
+      </c>
+      <c r="E338" s="16" t="s">
+        <v>3899</v>
+      </c>
+      <c r="F338" s="16" t="s">
+        <v>4071</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A339" s="16">
+        <v>164</v>
+      </c>
+      <c r="B339" s="16">
+        <v>94</v>
+      </c>
+      <c r="C339" s="16" t="s">
+        <v>3152</v>
+      </c>
+      <c r="D339" s="16" t="s">
+        <v>4072</v>
+      </c>
+      <c r="E339" s="16" t="s">
+        <v>4073</v>
+      </c>
+      <c r="F339" s="16" t="s">
+        <v>4074</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A340" s="16">
+        <v>164</v>
+      </c>
+      <c r="B340" s="16">
+        <v>95</v>
+      </c>
+      <c r="C340" s="16" t="s">
+        <v>3152</v>
+      </c>
+      <c r="D340" s="16" t="s">
+        <v>3907</v>
+      </c>
+      <c r="E340" s="16" t="s">
+        <v>3908</v>
+      </c>
+      <c r="F340" s="16" t="s">
+        <v>4075</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A341" s="16">
+        <v>164</v>
+      </c>
+      <c r="B341" s="16">
+        <v>96</v>
+      </c>
+      <c r="C341" s="16" t="s">
+        <v>3152</v>
+      </c>
+      <c r="D341" s="16" t="s">
+        <v>3910</v>
+      </c>
+      <c r="E341" s="16" t="s">
+        <v>3911</v>
+      </c>
+      <c r="F341" s="16" t="s">
+        <v>4076</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A342" s="16">
+        <v>164</v>
+      </c>
+      <c r="B342" s="16">
+        <v>97</v>
+      </c>
+      <c r="C342" s="16" t="s">
+        <v>3152</v>
+      </c>
+      <c r="D342" s="16" t="s">
+        <v>3986</v>
+      </c>
+      <c r="E342" s="16" t="s">
+        <v>3987</v>
+      </c>
+      <c r="F342" s="16" t="s">
+        <v>4077</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A343" s="16">
+        <v>164</v>
+      </c>
+      <c r="B343" s="16">
+        <v>98</v>
+      </c>
+      <c r="C343" s="16" t="s">
+        <v>4078</v>
+      </c>
+      <c r="D343" s="16" t="s">
+        <v>4079</v>
+      </c>
+      <c r="E343" s="16" t="s">
+        <v>4080</v>
+      </c>
+      <c r="F343" s="16" t="s">
+        <v>3726</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A344" s="16">
+        <v>164</v>
+      </c>
+      <c r="B344" s="16">
+        <v>99</v>
+      </c>
+      <c r="C344" s="16" t="s">
+        <v>4081</v>
+      </c>
+      <c r="D344" s="16" t="s">
+        <v>4082</v>
+      </c>
+      <c r="E344" s="16" t="s">
+        <v>4083</v>
+      </c>
+      <c r="F344" s="16" t="s">
+        <v>4084</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A345" s="16">
+        <v>164</v>
+      </c>
+      <c r="B345" s="16">
+        <v>100</v>
+      </c>
+      <c r="C345" s="16" t="s">
+        <v>4085</v>
+      </c>
+      <c r="D345" s="16" t="s">
+        <v>4086</v>
+      </c>
+      <c r="E345" s="16" t="s">
+        <v>4086</v>
+      </c>
+      <c r="F345" s="16" t="s">
+        <v>4087</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A346" s="16">
+        <v>164</v>
+      </c>
+      <c r="B346" s="16">
+        <v>101</v>
+      </c>
+      <c r="C346" s="16" t="s">
+        <v>4088</v>
+      </c>
+      <c r="D346" s="16" t="s">
+        <v>4089</v>
+      </c>
+      <c r="E346" s="16" t="s">
+        <v>4090</v>
       </c>
     </row>
   </sheetData>
@@ -45981,7 +54351,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1698"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
